--- a/ABBV.xlsx
+++ b/ABBV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E3DBE1-6598-466E-9093-9111FA362B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D30171-DB55-4930-A13E-CB36C8F4D504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1080" windowWidth="22335" windowHeight="13875" activeTab="1" xr2:uid="{5AA46402-15B0-4FC0-8E3D-B86295590FFA}"/>
+    <workbookView xWindow="3570" yWindow="465" windowWidth="21750" windowHeight="15015" activeTab="1" xr2:uid="{5AA46402-15B0-4FC0-8E3D-B86295590FFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -771,7 +771,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -798,12 +798,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -960,7 +954,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1778,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="13"/>
-      <c r="J17" s="29" t="s">
+      <c r="J17" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2570,10 +2564,10 @@
   <dimension ref="A1:EF72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Q18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="R20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD36" sqref="AD36"/>
+      <selection pane="bottomRight" activeCell="AC43" sqref="AC43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2685,7 +2679,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="29" t="s">
         <v>63</v>
       </c>
       <c r="C3" s="2">
@@ -2744,7 +2738,7 @@
         <v>25833.31640307001</v>
       </c>
       <c r="V3" s="2">
-        <f t="shared" ref="U3:Z4" si="3">U3*1.05</f>
+        <f t="shared" ref="V3:Z4" si="3">U3*1.05</f>
         <v>27124.982223223513</v>
       </c>
       <c r="W3" s="2">
@@ -2765,7 +2759,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="29" t="s">
         <v>64</v>
       </c>
       <c r="C4" s="2">
@@ -2845,7 +2839,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="29" t="s">
         <v>62</v>
       </c>
       <c r="C5" s="2">
@@ -2888,23 +2882,11 @@
         <v>3705.2</v>
       </c>
       <c r="R5" s="2">
-        <f>Q5*0.6</f>
-        <v>2223.12</v>
-      </c>
-      <c r="S5" s="2">
-        <f>R5*0.6</f>
-        <v>1333.8719999999998</v>
-      </c>
-      <c r="T5" s="2">
-        <f>S5*0.6</f>
-        <v>800.32319999999993</v>
-      </c>
-      <c r="U5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="29" t="s">
         <v>69</v>
       </c>
       <c r="C6" s="2">
@@ -2984,7 +2966,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="29" t="s">
         <v>79</v>
       </c>
       <c r="C7" s="2">
@@ -3064,7 +3046,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="29" t="s">
         <v>71</v>
       </c>
       <c r="C8" s="2">
@@ -3144,7 +3126,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="29" t="s">
         <v>81</v>
       </c>
       <c r="C9" s="2">
@@ -3406,15 +3388,11 @@
         <v>3091.6864</v>
       </c>
       <c r="R12" s="2">
-        <f>Q12*0.6</f>
-        <v>1855.0118399999999</v>
-      </c>
-      <c r="S12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="29" t="s">
         <v>66</v>
       </c>
       <c r="C13" s="2">
@@ -3494,7 +3472,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="29" t="s">
         <v>67</v>
       </c>
       <c r="C14" s="2">
@@ -3568,7 +3546,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="29" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="2">
@@ -3645,7 +3623,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="29" t="s">
         <v>80</v>
       </c>
       <c r="C16" s="2">
@@ -4428,15 +4406,15 @@
       </c>
       <c r="R25" s="7">
         <f t="shared" si="31"/>
-        <v>62172.825123000017</v>
+        <v>58094.693283000022</v>
       </c>
       <c r="S25" s="7">
         <f t="shared" si="31"/>
-        <v>63513.339231670005</v>
+        <v>62179.467231670002</v>
       </c>
       <c r="T25" s="7">
         <f t="shared" si="31"/>
-        <v>67410.507735149717</v>
+        <v>66610.184535149718</v>
       </c>
       <c r="U25" s="7">
         <f t="shared" si="31"/>
@@ -4502,15 +4480,15 @@
       </c>
       <c r="R26" s="2">
         <f t="shared" ref="R26:Z26" si="34">R25*(1-R41)</f>
-        <v>18651.847536900008</v>
+        <v>17428.407984900008</v>
       </c>
       <c r="S26" s="2">
         <f t="shared" si="34"/>
-        <v>19054.001769501003</v>
+        <v>18653.840169501003</v>
       </c>
       <c r="T26" s="2">
         <f t="shared" si="34"/>
-        <v>20223.152320544919</v>
+        <v>19983.055360544917</v>
       </c>
       <c r="U26" s="2">
         <f t="shared" si="34"/>
@@ -4591,15 +4569,15 @@
       </c>
       <c r="R27" s="2">
         <f t="shared" si="36"/>
-        <v>43520.977586100009</v>
+        <v>40666.285298100018</v>
       </c>
       <c r="S27" s="2">
         <f t="shared" si="36"/>
-        <v>44459.337462169002</v>
+        <v>43525.627062168998</v>
       </c>
       <c r="T27" s="2">
         <f t="shared" si="36"/>
-        <v>47187.355414604797</v>
+        <v>46627.129174604801</v>
       </c>
       <c r="U27" s="2">
         <f t="shared" si="36"/>
@@ -4873,15 +4851,15 @@
       </c>
       <c r="R31" s="2">
         <f t="shared" si="41"/>
-        <v>29906.325932100008</v>
+        <v>27051.633644100017</v>
       </c>
       <c r="S31" s="2">
         <f t="shared" si="41"/>
-        <v>30572.392775089</v>
+        <v>29638.682375088996</v>
       </c>
       <c r="T31" s="2">
         <f t="shared" si="41"/>
-        <v>33022.671833783199</v>
+        <v>32462.445593783199</v>
       </c>
       <c r="U31" s="2">
         <f t="shared" si="41"/>
@@ -4951,35 +4929,35 @@
       </c>
       <c r="S32" s="2">
         <f t="shared" si="42"/>
-        <v>-603.33261655302238</v>
+        <v>-649.57863161862213</v>
       </c>
       <c r="T32" s="2">
         <f t="shared" si="42"/>
-        <v>-117.83384198473948</v>
+        <v>-179.95515097440207</v>
       </c>
       <c r="U32" s="2">
         <f t="shared" si="42"/>
-        <v>415.22453348239549</v>
+        <v>343.02119419910042</v>
       </c>
       <c r="V32" s="2">
         <f t="shared" si="42"/>
-        <v>997.78378931210784</v>
+        <v>924.4107559324234</v>
       </c>
       <c r="W32" s="2">
         <f t="shared" si="42"/>
-        <v>1618.744583584175</v>
+        <v>1544.1829070637395</v>
       </c>
       <c r="X32" s="2">
         <f t="shared" si="42"/>
-        <v>2280.112181404169</v>
+        <v>2204.3426057241027</v>
       </c>
       <c r="Y32" s="2">
         <f t="shared" si="42"/>
-        <v>2983.9901355258598</v>
+        <v>2906.9930927197765</v>
       </c>
       <c r="Z32" s="2">
         <f t="shared" si="42"/>
-        <v>3732.5850399722549</v>
+        <v>3654.340645072713</v>
       </c>
     </row>
     <row r="33" spans="1:136" x14ac:dyDescent="0.2">
@@ -5066,39 +5044,39 @@
       </c>
       <c r="R34" s="2">
         <f t="shared" si="44"/>
-        <v>28835.852504966526</v>
+        <v>25981.160216966535</v>
       </c>
       <c r="S34" s="2">
         <f t="shared" si="44"/>
-        <v>29969.060158535976</v>
+        <v>28989.103743470376</v>
       </c>
       <c r="T34" s="2">
         <f t="shared" si="44"/>
-        <v>32904.837991798457</v>
+        <v>32282.490442808798</v>
       </c>
       <c r="U34" s="2">
         <f t="shared" si="44"/>
-        <v>35960.447890722979</v>
+        <v>35888.244551439682</v>
       </c>
       <c r="V34" s="2">
         <f t="shared" si="44"/>
-        <v>38330.913226670811</v>
+        <v>38257.540193291126</v>
       </c>
       <c r="W34" s="2">
         <f t="shared" si="44"/>
-        <v>40825.160359258887</v>
+        <v>40750.598682738455</v>
       </c>
       <c r="X34" s="2">
         <f t="shared" si="44"/>
-        <v>43449.256427264874</v>
+        <v>43373.486851584807</v>
       </c>
       <c r="Y34" s="2">
         <f t="shared" si="44"/>
-        <v>46209.56200286391</v>
+        <v>46132.564960057825</v>
       </c>
       <c r="Z34" s="2">
         <f t="shared" si="44"/>
-        <v>49112.745329423778</v>
+        <v>49034.500934524236</v>
       </c>
     </row>
     <row r="35" spans="1:136" x14ac:dyDescent="0.2">
@@ -5142,39 +5120,39 @@
       </c>
       <c r="R35" s="2">
         <f>R34*0.19</f>
-        <v>5478.8119759436404</v>
+        <v>4936.4204412236413</v>
       </c>
       <c r="S35" s="2">
         <f t="shared" ref="S35:Z35" si="45">S34*0.19</f>
-        <v>5694.1214301218351</v>
+        <v>5507.9297112593713</v>
       </c>
       <c r="T35" s="2">
         <f t="shared" si="45"/>
-        <v>6251.919218441707</v>
+        <v>6133.6731841336714</v>
       </c>
       <c r="U35" s="2">
         <f t="shared" si="45"/>
-        <v>6832.4850992373658</v>
+        <v>6818.7664647735401</v>
       </c>
       <c r="V35" s="2">
         <f t="shared" si="45"/>
-        <v>7282.873513067454</v>
+        <v>7268.9326367253143</v>
       </c>
       <c r="W35" s="2">
         <f t="shared" si="45"/>
-        <v>7756.7804682591886</v>
+        <v>7742.6137497203063</v>
       </c>
       <c r="X35" s="2">
         <f t="shared" si="45"/>
-        <v>8255.358721180326</v>
+        <v>8240.9625018011138</v>
       </c>
       <c r="Y35" s="2">
         <f t="shared" si="45"/>
-        <v>8779.8167805441426</v>
+        <v>8765.1873424109872</v>
       </c>
       <c r="Z35" s="2">
         <f t="shared" si="45"/>
-        <v>9331.4216125905186</v>
+        <v>9316.555177559605</v>
       </c>
     </row>
     <row r="36" spans="1:136" x14ac:dyDescent="0.2">
@@ -5231,479 +5209,479 @@
       </c>
       <c r="R36" s="2">
         <f t="shared" si="47"/>
-        <v>23357.040529022885</v>
+        <v>21044.739775742892</v>
       </c>
       <c r="S36" s="2">
         <f t="shared" si="47"/>
-        <v>24274.938728414141</v>
+        <v>23481.174032211005</v>
       </c>
       <c r="T36" s="2">
         <f t="shared" si="47"/>
-        <v>26652.918773356749</v>
+        <v>26148.817258675124</v>
       </c>
       <c r="U36" s="2">
         <f t="shared" si="47"/>
-        <v>29127.962791485614</v>
+        <v>29069.478086666142</v>
       </c>
       <c r="V36" s="2">
         <f t="shared" si="47"/>
-        <v>31048.039713603357</v>
+        <v>30988.60755656581</v>
       </c>
       <c r="W36" s="2">
         <f t="shared" si="47"/>
-        <v>33068.379890999699</v>
+        <v>33007.984933018146</v>
       </c>
       <c r="X36" s="2">
         <f t="shared" si="47"/>
-        <v>35193.89770608455</v>
+        <v>35132.524349783693</v>
       </c>
       <c r="Y36" s="2">
         <f t="shared" si="47"/>
-        <v>37429.745222319769</v>
+        <v>37367.377617646838</v>
       </c>
       <c r="Z36" s="2">
         <f t="shared" si="47"/>
-        <v>39781.323716833256</v>
+        <v>39717.945756964633</v>
       </c>
       <c r="AA36" s="2">
         <f>Z36*(1+AC39)</f>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="AB36" s="2">
         <f t="shared" ref="AB36:CM36" si="48">AA36*(1+AD39)</f>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="AC36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="AD36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="AE36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="AF36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="AG36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="AH36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="AI36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="AJ36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="AK36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="AL36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="AM36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="AN36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="AO36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="AP36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="AQ36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="AR36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="AS36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="AT36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="AU36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="AV36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="AW36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="AX36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="AY36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="AZ36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="BA36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="BB36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="BC36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="BD36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="BE36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="BF36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="BG36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="BH36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="BI36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="BJ36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="BK36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="BL36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="BM36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="BN36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="BO36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="BP36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="BQ36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="BR36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="BS36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="BT36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="BU36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="BV36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="BW36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="BX36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="BY36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="BZ36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="CA36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="CB36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="CC36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="CD36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="CE36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="CF36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="CG36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="CH36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="CI36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="CJ36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="CK36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="CL36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="CM36" s="2">
         <f t="shared" si="48"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="CN36" s="2">
         <f t="shared" ref="CN36:EF36" si="49">CM36*(1+CP39)</f>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="CO36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="CP36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="CQ36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="CR36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="CS36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="CT36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="CU36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="CV36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="CW36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="CX36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="CY36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="CZ36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="DA36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="DB36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="DC36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="DD36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="DE36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="DF36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="DG36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="DH36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="DI36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="DJ36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="DK36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="DL36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="DM36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="DN36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="DO36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="DP36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="DQ36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="DR36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="DS36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="DT36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="DU36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="DV36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="DW36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="DX36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="DY36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="DZ36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="EA36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="EB36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="EC36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="ED36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="EE36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
       <c r="EF36" s="2">
         <f t="shared" si="49"/>
-        <v>39383.510479664925</v>
+        <v>39320.766299394985</v>
       </c>
     </row>
     <row r="37" spans="1:136" x14ac:dyDescent="0.2">
@@ -5834,39 +5812,39 @@
       </c>
       <c r="R38" s="1">
         <f t="shared" ref="R38" si="56">R36/R37</f>
-        <v>13.188616899504735</v>
+        <v>11.882969946777466</v>
       </c>
       <c r="S38" s="1">
         <f t="shared" ref="S38" si="57">S36/S37</f>
-        <v>13.706910631515608</v>
+        <v>13.258709222027671</v>
       </c>
       <c r="T38" s="1">
         <f t="shared" ref="T38" si="58">T36/T37</f>
-        <v>15.049643576147233</v>
+        <v>14.765001275367094</v>
       </c>
       <c r="U38" s="1">
         <f t="shared" ref="U38" si="59">U36/U37</f>
-        <v>16.447183959054552</v>
+        <v>16.414160410314029</v>
       </c>
       <c r="V38" s="1">
         <f t="shared" ref="V38" si="60">V36/V37</f>
-        <v>17.531360651385295</v>
+        <v>17.497802121155171</v>
       </c>
       <c r="W38" s="1">
         <f t="shared" ref="W38" si="61">W36/W37</f>
-        <v>18.672151265386617</v>
+        <v>18.638049086966767</v>
       </c>
       <c r="X38" s="1">
         <f t="shared" ref="X38" si="62">X36/X37</f>
-        <v>19.872330720544635</v>
+        <v>19.837676086834382</v>
       </c>
       <c r="Y38" s="1">
         <f t="shared" ref="Y38" si="63">Y36/Y37</f>
-        <v>21.134808143602353</v>
+        <v>21.099592104825994</v>
       </c>
       <c r="Z38" s="1">
         <f t="shared" ref="Z38" si="64">Z36/Z37</f>
-        <v>22.462633380481794</v>
+        <v>22.426846841877264</v>
       </c>
       <c r="AB38" s="2" t="s">
         <v>51</v>
@@ -5918,19 +5896,19 @@
       </c>
       <c r="R40" s="9">
         <f t="shared" si="66"/>
-        <v>1.7166638799061662E-2</v>
+        <v>-4.9552858796000687E-2</v>
       </c>
       <c r="S40" s="9">
         <f t="shared" si="66"/>
-        <v>2.1561093709638879E-2</v>
+        <v>7.0312342106215953E-2</v>
       </c>
       <c r="T40" s="9">
         <f t="shared" si="66"/>
-        <v>6.1359842682251031E-2</v>
+        <v>7.1256919699418164E-2</v>
       </c>
       <c r="U40" s="9">
         <f t="shared" si="66"/>
-        <v>5.9461802222664728E-2</v>
+        <v>7.2191264927953691E-2</v>
       </c>
       <c r="V40" s="9">
         <f t="shared" si="66"/>
@@ -6041,7 +6019,7 @@
       </c>
       <c r="AC41" s="2">
         <f>NPV(AC40,Q36:XFD36)+Main!K5-Main!K6</f>
-        <v>416521.27804997418</v>
+        <v>412792.93660731037</v>
       </c>
     </row>
     <row r="42" spans="1:136" x14ac:dyDescent="0.2">
@@ -6122,7 +6100,7 @@
       </c>
       <c r="AC42" s="1">
         <f>AC41/Main!K3</f>
-        <v>235.80235396850892</v>
+        <v>233.69165342352261</v>
       </c>
     </row>
     <row r="43" spans="1:136" x14ac:dyDescent="0.2">
@@ -6167,7 +6145,7 @@
       <c r="Z43" s="10"/>
       <c r="AC43" s="10">
         <f>AC42/Main!K2-1</f>
-        <v>0.20924284086414824</v>
+        <v>0.19841873550524425</v>
       </c>
     </row>
     <row r="44" spans="1:136" x14ac:dyDescent="0.2">
@@ -6242,39 +6220,39 @@
       </c>
       <c r="R46" s="2">
         <f t="shared" ref="R46:Z46" si="73">Q46+R36</f>
-        <v>-30166.630827651115</v>
+        <v>-32478.931580931108</v>
       </c>
       <c r="S46" s="2">
         <f t="shared" si="73"/>
-        <v>-5891.6920992369742</v>
+        <v>-8997.7575487201029</v>
       </c>
       <c r="T46" s="2">
         <f t="shared" si="73"/>
-        <v>20761.226674119775</v>
+        <v>17151.059709955021</v>
       </c>
       <c r="U46" s="2">
         <f t="shared" si="73"/>
-        <v>49889.189465605392</v>
+        <v>46220.537796621167</v>
       </c>
       <c r="V46" s="2">
         <f t="shared" si="73"/>
-        <v>80937.229179208749</v>
+        <v>77209.145353186977</v>
       </c>
       <c r="W46" s="2">
         <f t="shared" si="73"/>
-        <v>114005.60907020845</v>
+        <v>110217.13028620512</v>
       </c>
       <c r="X46" s="2">
         <f t="shared" si="73"/>
-        <v>149199.50677629298</v>
+        <v>145349.65463598882</v>
       </c>
       <c r="Y46" s="2">
         <f t="shared" si="73"/>
-        <v>186629.25199861274</v>
+        <v>182717.03225363564</v>
       </c>
       <c r="Z46" s="2">
         <f t="shared" si="73"/>
-        <v>226410.575715446</v>
+        <v>222434.97801060026</v>
       </c>
     </row>
     <row r="47" spans="1:136" x14ac:dyDescent="0.2">
@@ -7141,7 +7119,7 @@
         <v>2026</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:N13" si="0">D13+1</f>
+        <f t="shared" ref="E13:L13" si="0">D13+1</f>
         <v>2027</v>
       </c>
       <c r="F13">
@@ -7226,7 +7204,7 @@
         <v>300000</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" ref="D15:L15" si="2">D14*0.2</f>
+        <f t="shared" ref="D15:G15" si="2">D14*0.2</f>
         <v>303000</v>
       </c>
       <c r="E15" s="2">
@@ -7441,7 +7419,7 @@
         <v>480000</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" ref="D22:L22" si="7">D21*0.2</f>
+        <f t="shared" ref="D22:G22" si="7">D21*0.2</f>
         <v>484800</v>
       </c>
       <c r="E22" s="2">
@@ -7666,7 +7644,7 @@
         <v>363600</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" ref="E29:L29" si="12">E28*0.15</f>
+        <f t="shared" ref="E29:G29" si="12">E28*0.15</f>
         <v>367236</v>
       </c>
       <c r="F29" s="2">
@@ -7892,7 +7870,7 @@
         <v>140000</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" ref="D36:L36" si="17">D35*0.2</f>
+        <f t="shared" ref="D36:E36" si="17">D35*0.2</f>
         <v>141400</v>
       </c>
       <c r="E36" s="2">

--- a/ABBV.xlsx
+++ b/ABBV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D30171-DB55-4930-A13E-CB36C8F4D504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92276A52-70C1-43A4-80C7-1069C41D1E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="465" windowWidth="21750" windowHeight="15015" activeTab="1" xr2:uid="{5AA46402-15B0-4FC0-8E3D-B86295590FFA}"/>
+    <workbookView xWindow="1425" yWindow="585" windowWidth="22140" windowHeight="14805" activeTab="1" xr2:uid="{5AA46402-15B0-4FC0-8E3D-B86295590FFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="215">
   <si>
     <t>Price</t>
   </si>
@@ -765,6 +765,9 @@
   </si>
   <si>
     <t>Is Skyrizi the best treatment or are competitors similar?</t>
+  </si>
+  <si>
+    <t>Admin</t>
   </si>
 </sst>
 </file>
@@ -908,7 +911,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -928,22 +931,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -954,7 +946,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1429,26 +1432,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB1E85D-BF28-46C3-911C-C127C0122D38}">
-  <dimension ref="B2:L39"/>
+  <dimension ref="B2:M39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="K15" sqref="K15:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" customWidth="1"/>
-    <col min="9" max="9" width="5" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" customWidth="1"/>
+    <col min="10" max="10" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1464,613 +1468,675 @@
       <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="22">
         <v>37621</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="J3" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="23"/>
+      <c r="K3" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <f>1766.4</f>
         <v>1766.4</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="24" t="s">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B4" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="22">
         <v>43578</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="J4" t="s">
+      <c r="G4" s="24"/>
+      <c r="H4" s="23"/>
+      <c r="K4" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="2">
-        <f>K3*K2</f>
+      <c r="L4" s="2">
+        <f>L3*L2</f>
         <v>344448</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="24" t="s">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="22">
         <v>43693</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="J5" t="s">
+      <c r="G5" s="24"/>
+      <c r="H5" s="23"/>
+      <c r="K5" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <f>5175+1</f>
         <v>5176</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="22">
         <v>41682</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="J6" t="s">
+      <c r="G6" s="24"/>
+      <c r="H6" s="23"/>
+      <c r="K6" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <f>1593+3769+64527+2582</f>
         <v>72471</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="24" t="s">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B7" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="22">
         <v>42471</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="J7" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="23"/>
+      <c r="K7" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="2">
-        <f>K4+K6-K5</f>
+      <c r="L7" s="2">
+        <f>L4+L6-L5</f>
         <v>411743</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="24" t="s">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B8" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="22">
         <v>45373</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="24">
         <v>1</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="24" t="s">
+      <c r="G8" s="24"/>
+      <c r="H8" s="23"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B9" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="22">
         <v>45065</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="24">
         <v>1</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="J9" t="s">
+      <c r="G9" s="24"/>
+      <c r="H9" s="23"/>
+      <c r="K9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="24" t="s">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="22">
         <v>42264</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="J10" t="s">
+      <c r="G10" s="24"/>
+      <c r="H10" s="23"/>
+      <c r="K10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="G11" s="13"/>
-      <c r="J11" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="23"/>
+      <c r="K11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="24" t="s">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="22">
         <v>43822</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="J12" t="s">
+      <c r="G12" s="24"/>
+      <c r="H12" s="23"/>
+      <c r="K12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="24" t="s">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="22">
         <v>44467</v>
       </c>
-      <c r="F13" s="10">
+      <c r="E13" s="21"/>
+      <c r="F13" s="24">
         <v>1</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="J13" t="s">
+      <c r="G13" s="24"/>
+      <c r="H13" s="23"/>
+      <c r="K13" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="8">
+      <c r="C14" s="21"/>
+      <c r="D14" s="22">
         <v>39981</v>
       </c>
-      <c r="F14" s="10">
+      <c r="E14" s="21"/>
+      <c r="F14" s="24">
         <v>1</v>
       </c>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G14" s="24"/>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="8">
+      <c r="C15" s="21"/>
+      <c r="D15" s="22">
         <v>40238</v>
       </c>
-      <c r="F15" s="10">
+      <c r="E15" s="21"/>
+      <c r="F15" s="24">
         <v>1</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="J15" s="25" t="s">
+      <c r="G15" s="24"/>
+      <c r="H15" s="23"/>
+      <c r="K15" s="18" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="8">
+      <c r="C16" s="21"/>
+      <c r="D16" s="22">
         <v>35261</v>
       </c>
-      <c r="F16" s="10">
+      <c r="E16" s="21"/>
+      <c r="F16" s="24">
         <v>1</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="J16" t="s">
+      <c r="G16" s="24"/>
+      <c r="H16" s="23"/>
+      <c r="K16" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="8">
+      <c r="C17" s="21"/>
+      <c r="D17" s="22">
         <v>37613</v>
       </c>
-      <c r="F17" s="10">
+      <c r="E17" s="21"/>
+      <c r="F17" s="24">
         <v>1</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="J17" t="s">
+      <c r="G17" s="24"/>
+      <c r="H17" s="23"/>
+      <c r="K17" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="8">
+      <c r="C18" s="21"/>
+      <c r="D18" s="22">
         <v>43406</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E18" s="21"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="8">
+      <c r="C19" s="21"/>
+      <c r="D19" s="22">
         <v>39933</v>
       </c>
-      <c r="F19" s="10">
+      <c r="E19" s="21"/>
+      <c r="F19" s="24">
         <v>1</v>
       </c>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G19" s="24"/>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="8">
+      <c r="C20" s="21"/>
+      <c r="D20" s="22">
         <v>41151</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="E20" s="21"/>
+      <c r="F20" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="16"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="17" t="s">
+      <c r="G20" s="24"/>
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="13"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
-      <c r="J21" s="25" t="s">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="5"/>
+      <c r="K21" s="18" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="24">
         <v>1</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="J22" t="s">
+      <c r="G22" s="24"/>
+      <c r="H22" s="23"/>
+      <c r="K22" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="24" t="s">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="24">
         <v>1</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="J23" t="s">
+      <c r="G23" s="24"/>
+      <c r="H23" s="23"/>
+      <c r="K23" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="24" t="s">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="24">
         <v>1</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="J24" t="s">
+      <c r="G24" s="24"/>
+      <c r="H24" s="23"/>
+      <c r="K24" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="24" t="s">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="24">
         <v>1</v>
       </c>
-      <c r="G25" s="13"/>
-      <c r="J25" t="s">
+      <c r="G25" s="24"/>
+      <c r="H25" s="23"/>
+      <c r="K25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G26" s="21"/>
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="10">
+      <c r="E27" s="21"/>
+      <c r="F27" s="24">
         <v>1</v>
       </c>
-      <c r="G27" s="13"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="24" t="s">
+      <c r="G27" s="24"/>
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="10">
+      <c r="E28" s="21"/>
+      <c r="F28" s="24">
         <v>1</v>
       </c>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G28" s="24"/>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="F29" s="10">
+      <c r="E29" s="21"/>
+      <c r="F29" s="24">
         <v>1</v>
       </c>
-      <c r="G29" s="13"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G29" s="24"/>
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="F30" s="10">
+      <c r="E30" s="21"/>
+      <c r="F30" s="24">
         <v>1</v>
       </c>
-      <c r="G30" s="13"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G30" s="24"/>
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="G31" s="13"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="23"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="13"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E32" s="21"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="23"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="D33" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="G33" s="13"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="23"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="G34" s="13"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="23"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D35" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="G35" s="13"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="21" t="s">
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="23"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="15"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C37" s="19"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C38" s="19"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C39" s="19"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="25"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C37" s="14"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C38" s="14"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C39" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2564,10 +2630,10 @@
   <dimension ref="A1:EF72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="R20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="V21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AC43" sqref="AC43"/>
+      <selection pane="bottomRight" activeCell="AA43" sqref="AA43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2679,7 +2745,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C3" s="2">
@@ -2759,7 +2825,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C4" s="2">
@@ -2839,7 +2905,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C5" s="2">
@@ -2886,7 +2952,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C6" s="2">
@@ -2966,7 +3032,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C7" s="2">
@@ -3046,7 +3112,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C8" s="2">
@@ -3126,7 +3192,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C9" s="2">
@@ -3392,7 +3458,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C13" s="2">
@@ -3472,7 +3538,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C14" s="2">
@@ -3546,7 +3612,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="2">
@@ -3623,7 +3689,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C16" s="2">
@@ -6018,9 +6084,10 @@
         <v>54</v>
       </c>
       <c r="AC41" s="2">
-        <f>NPV(AC40,Q36:XFD36)+Main!K5-Main!K6</f>
+        <f>NPV(AC40,Q36:XFD36)+Main!L5-Main!L6</f>
         <v>412792.93660731037</v>
       </c>
+      <c r="AD41" s="10"/>
     </row>
     <row r="42" spans="1:136" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
@@ -6099,7 +6166,7 @@
         <v>55</v>
       </c>
       <c r="AC42" s="1">
-        <f>AC41/Main!K3</f>
+        <f>AC41/Main!L3</f>
         <v>233.69165342352261</v>
       </c>
     </row>
@@ -6144,7 +6211,7 @@
       <c r="Y43" s="10"/>
       <c r="Z43" s="10"/>
       <c r="AC43" s="10">
-        <f>AC42/Main!K2-1</f>
+        <f>AC42/Main!L2-1</f>
         <v>0.19841873550524425</v>
       </c>
     </row>
@@ -6515,7 +6582,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6599,7 +6666,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:O20"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6670,7 +6737,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="18" t="s">
         <v>204</v>
       </c>
     </row>
@@ -6690,7 +6757,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C15" s="26"/>
+      <c r="C15" s="19"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C16">
@@ -6989,7 +7056,7 @@
       <c r="B23" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="20">
         <f>NPV(C22,D20:XFD20)</f>
         <v>3532.710809292696</v>
       </c>
@@ -7034,8 +7101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1821AE52-0544-46E9-93D9-C9ACA7CED10F}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7106,7 +7173,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="18" t="s">
         <v>206</v>
       </c>
     </row>
@@ -7321,7 +7388,7 @@
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="18" t="s">
         <v>208</v>
       </c>
     </row>
@@ -7536,7 +7603,7 @@
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="18" t="s">
         <v>210</v>
       </c>
       <c r="N26" t="s">
@@ -7765,13 +7832,13 @@
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="18" t="s">
         <v>211</v>
       </c>
       <c r="N33" t="s">
         <v>54</v>
       </c>
-      <c r="O33" s="27">
+      <c r="O33" s="20">
         <f>NPV(O32,C40:XFD40)</f>
         <v>171931.16257890849</v>
       </c>

--- a/ABBV.xlsx
+++ b/ABBV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92276A52-70C1-43A4-80C7-1069C41D1E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A06EFC-A05D-4A14-B25D-8855C8308BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="585" windowWidth="22140" windowHeight="14805" activeTab="1" xr2:uid="{5AA46402-15B0-4FC0-8E3D-B86295590FFA}"/>
+    <workbookView xWindow="3300" yWindow="390" windowWidth="22200" windowHeight="14685" activeTab="1" xr2:uid="{5AA46402-15B0-4FC0-8E3D-B86295590FFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -53,11 +53,58 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={5826A23F-5633-41E2-8A6C-5C01DF3428D7}</author>
+    <author>tc={B0CDD9DA-6D33-46EB-8EB8-B042CFC4E982}</author>
+    <author>tc={437C7744-E22A-44F7-A4D3-43CB71927624}</author>
+    <author>tc={8808F8DE-D78A-45C1-A061-1D93048DB378}</author>
+    <author>tc={7ABC4589-B57A-4080-8AE0-9423BE9AABDA}</author>
     <author>tc={81A1F165-5515-4DCF-8855-AC8667D3C35B}</author>
     <author>tc={0AC1D944-2872-4376-8FCB-DE3DD3906018}</author>
   </authors>
   <commentList>
-    <comment ref="Q25" authorId="0" shapeId="0" xr:uid="{81A1F165-5515-4DCF-8855-AC8667D3C35B}">
+    <comment ref="Q3" authorId="0" shapeId="0" xr:uid="{5826A23F-5633-41E2-8A6C-5C01DF3428D7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    17.1b guidance</t>
+      </text>
+    </comment>
+    <comment ref="S3" authorId="1" shapeId="0" xr:uid="{B0CDD9DA-6D33-46EB-8EB8-B042CFC4E982}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Previous LT guidance 20B</t>
+      </text>
+    </comment>
+    <comment ref="Q4" authorId="2" shapeId="0" xr:uid="{437C7744-E22A-44F7-A4D3-43CB71927624}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    8.2b guidance
+</t>
+      </text>
+    </comment>
+    <comment ref="S4" authorId="3" shapeId="0" xr:uid="{8808F8DE-D78A-45C1-A061-1D93048DB378}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Previous LT guidance 11B
+</t>
+      </text>
+    </comment>
+    <comment ref="Q10" authorId="4" shapeId="0" xr:uid="{7ABC4589-B57A-4080-8AE0-9423BE9AABDA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    400m guidance</t>
+      </text>
+    </comment>
+    <comment ref="Q25" authorId="5" shapeId="0" xr:uid="{81A1F165-5515-4DCF-8855-AC8667D3C35B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -65,7 +112,7 @@
     60.5B 2025 guidance</t>
       </text>
     </comment>
-    <comment ref="Q38" authorId="1" shapeId="0" xr:uid="{0AC1D944-2872-4376-8FCB-DE3DD3906018}">
+    <comment ref="Q38" authorId="6" shapeId="0" xr:uid="{0AC1D944-2872-4376-8FCB-DE3DD3906018}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -123,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="216">
   <si>
     <t>Price</t>
   </si>
@@ -768,6 +815,9 @@
   </si>
   <si>
     <t>Admin</t>
+  </si>
+  <si>
+    <t>PD</t>
   </si>
 </sst>
 </file>
@@ -1404,6 +1454,23 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="Q3" dT="2025-08-25T11:20:40.92" personId="{86544EA0-DE7A-48E8-B5F5-2D9D866E1040}" id="{5826A23F-5633-41E2-8A6C-5C01DF3428D7}">
+    <text>17.1b guidance</text>
+  </threadedComment>
+  <threadedComment ref="S3" dT="2025-08-25T11:20:08.11" personId="{86544EA0-DE7A-48E8-B5F5-2D9D866E1040}" id="{B0CDD9DA-6D33-46EB-8EB8-B042CFC4E982}">
+    <text>Previous LT guidance 20B</text>
+  </threadedComment>
+  <threadedComment ref="Q4" dT="2025-08-25T11:21:11.24" personId="{86544EA0-DE7A-48E8-B5F5-2D9D866E1040}" id="{437C7744-E22A-44F7-A4D3-43CB71927624}">
+    <text xml:space="preserve">8.2b guidance
+</text>
+  </threadedComment>
+  <threadedComment ref="S4" dT="2025-08-25T11:20:14.30" personId="{86544EA0-DE7A-48E8-B5F5-2D9D866E1040}" id="{8808F8DE-D78A-45C1-A061-1D93048DB378}">
+    <text xml:space="preserve">Previous LT guidance 11B
+</text>
+  </threadedComment>
+  <threadedComment ref="Q10" dT="2025-08-25T11:23:40.84" personId="{86544EA0-DE7A-48E8-B5F5-2D9D866E1040}" id="{7ABC4589-B57A-4080-8AE0-9423BE9AABDA}">
+    <text>400m guidance</text>
+  </threadedComment>
   <threadedComment ref="Q25" dT="2025-07-31T22:29:10.30" personId="{86544EA0-DE7A-48E8-B5F5-2D9D866E1040}" id="{81A1F165-5515-4DCF-8855-AC8667D3C35B}">
     <text>60.5B 2025 guidance</text>
   </threadedComment>
@@ -1432,17 +1499,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB1E85D-BF28-46C3-911C-C127C0122D38}">
-  <dimension ref="B2:M39"/>
+  <dimension ref="B2:M40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15:K17"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.28515625" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.42578125" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
@@ -1851,53 +1918,44 @@
       <c r="H20" s="23"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="13"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4" t="s">
+      <c r="B21" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="13"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="5"/>
-      <c r="K21" s="18" t="s">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="5"/>
+      <c r="K22" s="18" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="12" t="s">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C23" s="21" t="s">
         <v>86</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="F22" s="24">
-        <v>1</v>
-      </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="23"/>
-      <c r="K22" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>87</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>85</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F23" s="24">
         <v>1</v>
@@ -1905,21 +1963,21 @@
       <c r="G23" s="24"/>
       <c r="H23" s="23"/>
       <c r="K23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="17" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>164</v>
+        <v>87</v>
       </c>
       <c r="D24" s="21" t="s">
         <v>85</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F24" s="24">
         <v>1</v>
@@ -1927,21 +1985,21 @@
       <c r="G24" s="24"/>
       <c r="H24" s="23"/>
       <c r="K24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>85</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F25" s="24">
         <v>1</v>
@@ -1949,54 +2007,59 @@
       <c r="G25" s="24"/>
       <c r="H25" s="23"/>
       <c r="K25" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="12" t="s">
-        <v>91</v>
+      <c r="B26" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>85</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="G26" s="21"/>
+        <v>166</v>
+      </c>
+      <c r="F26" s="24">
+        <v>1</v>
+      </c>
+      <c r="G26" s="24"/>
       <c r="H26" s="23"/>
+      <c r="K26" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D27" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="24">
-        <v>1</v>
-      </c>
-      <c r="G27" s="24"/>
+      <c r="E27" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="G27" s="21"/>
       <c r="H27" s="23"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="17" t="s">
-        <v>95</v>
+      <c r="B28" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="24">
@@ -2006,11 +2069,11 @@
       <c r="H28" s="23"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="12" t="s">
-        <v>98</v>
+      <c r="B29" s="17" t="s">
+        <v>95</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D29" s="21" t="s">
         <v>96</v>
@@ -2024,10 +2087,10 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D30" s="21" t="s">
         <v>96</v>
@@ -2041,55 +2104,57 @@
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>96</v>
       </c>
       <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
+      <c r="F31" s="24">
+        <v>1</v>
+      </c>
+      <c r="G31" s="24"/>
       <c r="H31" s="23"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D32" s="21" t="s">
         <v>96</v>
       </c>
       <c r="E32" s="21"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
       <c r="H32" s="23"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D33" s="21" t="s">
         <v>96</v>
       </c>
       <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="D34" s="21" t="s">
         <v>96</v>
@@ -2101,10 +2166,10 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="D35" s="21" t="s">
         <v>96</v>
@@ -2115,36 +2180,51 @@
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="23"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C37" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D37" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="25"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C37" s="14"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="25"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C38" s="14"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C39" s="14"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C40" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B5" location="rinvoq!A1" display="Rinvoq" xr:uid="{7CC3080C-E878-4AB7-AE19-B5A0FB430036}"/>
-    <hyperlink ref="B23" location="tavapadon!A1" display="CVL-751 (Tavapadon)" xr:uid="{C1B028AC-9EA0-40D7-9F5E-1C0C70941FB6}"/>
-    <hyperlink ref="B24" location="etentamig!A1" display="ABBV-383 (Etentamig)" xr:uid="{B88AA02B-0E9F-46BA-AAF0-127C26E89E0C}"/>
-    <hyperlink ref="B25" location="'temab-a'!A1" display="ABBV-400 (Temab-A)" xr:uid="{5EFE2D10-0CF3-4C33-B8FA-BFDF016C5B5E}"/>
-    <hyperlink ref="B28" location="'ABBV-113'!A1" display="ABBV-113" xr:uid="{BB0614A2-8B6D-4E8D-86F9-2273D245C1E6}"/>
+    <hyperlink ref="B24" location="tavapadon!A1" display="CVL-751 (Tavapadon)" xr:uid="{C1B028AC-9EA0-40D7-9F5E-1C0C70941FB6}"/>
+    <hyperlink ref="B25" location="etentamig!A1" display="ABBV-383 (Etentamig)" xr:uid="{B88AA02B-0E9F-46BA-AAF0-127C26E89E0C}"/>
+    <hyperlink ref="B26" location="'temab-a'!A1" display="ABBV-400 (Temab-A)" xr:uid="{5EFE2D10-0CF3-4C33-B8FA-BFDF016C5B5E}"/>
+    <hyperlink ref="B29" location="'ABBV-113'!A1" display="ABBV-113" xr:uid="{BB0614A2-8B6D-4E8D-86F9-2273D245C1E6}"/>
     <hyperlink ref="B4" location="skyrizi!A1" display="Skyrizi (risankizumab-rzaa)" xr:uid="{8FFA1A29-8633-4357-B9F8-B2D1DCB8CFC5}"/>
     <hyperlink ref="B7" location="venclexta!A1" display="Venclexta (venetoclax)" xr:uid="{75CE1CD3-4773-44BE-BCC5-D16434CDF10F}"/>
     <hyperlink ref="B8" location="elahere!A1" display="Elahere (mirvetuximab soravtansine-gynx)" xr:uid="{3F8857C0-C26D-4384-A30B-B0D4B009F18F}"/>
@@ -2630,10 +2710,10 @@
   <dimension ref="A1:EF72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="V21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="R17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA43" sqref="AA43"/>
+      <selection pane="bottomRight" activeCell="AB38" sqref="AB38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2767,12 +2847,12 @@
         <v>4423</v>
       </c>
       <c r="I3" s="2">
-        <f>H3*1.07</f>
-        <v>4732.6100000000006</v>
+        <f>H3*1.06</f>
+        <v>4688.38</v>
       </c>
       <c r="J3" s="2">
         <f>I3*1.07</f>
-        <v>5063.8927000000012</v>
+        <v>5016.5666000000001</v>
       </c>
       <c r="N3" s="2">
         <v>5165</v>
@@ -2785,43 +2865,43 @@
       </c>
       <c r="Q3" s="2">
         <f t="shared" ref="Q3:Q17" si="1">SUM(G3:J3)</f>
-        <v>17644.502700000001</v>
+        <v>17552.946600000003</v>
       </c>
       <c r="R3" s="2">
-        <f>Q3*1.1</f>
-        <v>19408.952970000002</v>
+        <f>Q3*1.07</f>
+        <v>18781.652862000003</v>
       </c>
       <c r="S3" s="2">
-        <f t="shared" ref="S3:U3" si="2">R3*1.1</f>
-        <v>21349.848267000005</v>
+        <f>R3*1.07</f>
+        <v>20096.368562340005</v>
       </c>
       <c r="T3" s="2">
-        <f t="shared" si="2"/>
-        <v>23484.833093700006</v>
+        <f t="shared" ref="T3:Z3" si="2">S3*1.07</f>
+        <v>21503.114361703807</v>
       </c>
       <c r="U3" s="2">
         <f t="shared" si="2"/>
-        <v>25833.31640307001</v>
+        <v>23008.332367023075</v>
       </c>
       <c r="V3" s="2">
-        <f t="shared" ref="V3:Z4" si="3">U3*1.05</f>
-        <v>27124.982223223513</v>
+        <f t="shared" si="2"/>
+        <v>24618.915632714692</v>
       </c>
       <c r="W3" s="2">
-        <f t="shared" si="3"/>
-        <v>28481.231334384691</v>
+        <f t="shared" si="2"/>
+        <v>26342.239727004722</v>
       </c>
       <c r="X3" s="2">
-        <f t="shared" si="3"/>
-        <v>29905.292901103927</v>
+        <f t="shared" si="2"/>
+        <v>28186.196507895056</v>
       </c>
       <c r="Y3" s="2">
-        <f t="shared" si="3"/>
-        <v>31400.557546159125</v>
+        <f t="shared" si="2"/>
+        <v>30159.230263447713</v>
       </c>
       <c r="Z3" s="2">
-        <f t="shared" si="3"/>
-        <v>32970.585423467084</v>
+        <f t="shared" si="2"/>
+        <v>32270.376381889055</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -2847,12 +2927,12 @@
         <v>2028</v>
       </c>
       <c r="I4" s="2">
-        <f>H4*1.05</f>
-        <v>2129.4</v>
+        <f>H4*1.06</f>
+        <v>2149.6800000000003</v>
       </c>
       <c r="J4" s="2">
-        <f>I4*1.05</f>
-        <v>2235.8700000000003</v>
+        <f>I4*1.07</f>
+        <v>2300.1576000000005</v>
       </c>
       <c r="N4" s="2">
         <v>2522</v>
@@ -2865,43 +2945,43 @@
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="1"/>
-        <v>8111.27</v>
+        <v>8195.8376000000007</v>
       </c>
       <c r="R4" s="2">
-        <f>Q4*1.1</f>
-        <v>8922.3970000000008</v>
+        <f>Q4*1.16</f>
+        <v>9507.1716159999996</v>
       </c>
       <c r="S4" s="2">
-        <f t="shared" ref="S4:U4" si="4">R4*1.1</f>
-        <v>9814.6367000000009</v>
+        <f>R4*1.16</f>
+        <v>11028.319074559999</v>
       </c>
       <c r="T4" s="2">
-        <f t="shared" si="4"/>
-        <v>10796.100370000002</v>
+        <f>S4*1.08</f>
+        <v>11910.584600524799</v>
       </c>
       <c r="U4" s="2">
-        <f t="shared" si="4"/>
-        <v>11875.710407000002</v>
+        <f t="shared" ref="U4:Z4" si="3">T4*1.08</f>
+        <v>12863.431368566784</v>
       </c>
       <c r="V4" s="2">
-        <f>U4*1.05</f>
-        <v>12469.495927350003</v>
+        <f t="shared" si="3"/>
+        <v>13892.505878052127</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="3"/>
-        <v>13092.970723717503</v>
+        <v>15003.906348296297</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" si="3"/>
-        <v>13747.619259903378</v>
+        <v>16204.218856160001</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="3"/>
-        <v>14435.000222898549</v>
+        <v>17500.556364652803</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="3"/>
-        <v>15156.750234043477</v>
+        <v>18900.600873825028</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -2999,35 +3079,35 @@
         <v>3768.1623</v>
       </c>
       <c r="S6" s="2">
-        <f t="shared" ref="S6:Z6" si="5">R6*1.03</f>
+        <f t="shared" ref="S6:Z6" si="4">R6*1.03</f>
         <v>3881.2071690000002</v>
       </c>
       <c r="T6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3997.6433840700001</v>
       </c>
       <c r="U6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4117.5726855921002</v>
       </c>
       <c r="V6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4241.0998661598633</v>
       </c>
       <c r="W6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4368.332862144659</v>
       </c>
       <c r="X6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4499.3828480089987</v>
       </c>
       <c r="Y6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4634.364333449269</v>
       </c>
       <c r="Z6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4773.3952634527468</v>
       </c>
     </row>
@@ -3075,19 +3155,19 @@
         <v>3762.8447999999999</v>
       </c>
       <c r="R7" s="2">
-        <f t="shared" ref="R7:U7" si="6">Q7*1.07</f>
+        <f t="shared" ref="R7:U7" si="5">Q7*1.07</f>
         <v>4026.2439359999998</v>
       </c>
       <c r="S7" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4308.0810115200002</v>
       </c>
       <c r="T7" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4609.6466823264009</v>
       </c>
       <c r="U7" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4932.3219500892492</v>
       </c>
       <c r="V7" s="2">
@@ -3095,19 +3175,19 @@
         <v>5080.2916085919269</v>
       </c>
       <c r="W7" s="2">
-        <f t="shared" ref="W7:Z7" si="7">V7*1.03</f>
+        <f t="shared" ref="W7:Z7" si="6">V7*1.03</f>
         <v>5232.7003568496848</v>
       </c>
       <c r="X7" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5389.6813675551757</v>
       </c>
       <c r="Y7" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5551.3718085818309</v>
       </c>
       <c r="Z7" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5717.9129628392857</v>
       </c>
     </row>
@@ -3159,35 +3239,35 @@
         <v>1370.8222500000002</v>
       </c>
       <c r="S8" s="2">
-        <f t="shared" ref="S8:Z8" si="8">R8*1.05</f>
+        <f t="shared" ref="S8:Z8" si="7">R8*1.05</f>
         <v>1439.3633625000002</v>
       </c>
       <c r="T8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1511.3315306250004</v>
       </c>
       <c r="U8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1586.8981071562505</v>
       </c>
       <c r="V8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1666.2430125140631</v>
       </c>
       <c r="W8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1749.5551631397664</v>
       </c>
       <c r="X8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1837.0329212967547</v>
       </c>
       <c r="Y8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1928.8845673615924</v>
       </c>
       <c r="Z8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2025.328795729672</v>
       </c>
     </row>
@@ -3239,35 +3319,35 @@
         <v>1130.6085</v>
       </c>
       <c r="S9" s="2">
-        <f t="shared" ref="S9:Z9" si="9">R9*1.05</f>
+        <f t="shared" ref="S9:Z9" si="8">R9*1.05</f>
         <v>1187.1389250000002</v>
       </c>
       <c r="T9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1246.4958712500002</v>
       </c>
       <c r="U9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1308.8206648125001</v>
       </c>
       <c r="V9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1374.2616980531252</v>
       </c>
       <c r="W9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1442.9747829557816</v>
       </c>
       <c r="X9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1515.1235221035708</v>
       </c>
       <c r="Y9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1590.8796982087495</v>
       </c>
       <c r="Z9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1670.423683119187</v>
       </c>
     </row>
@@ -3298,15 +3378,15 @@
         <v>461.69200000000006</v>
       </c>
       <c r="S10" s="2">
-        <f t="shared" ref="S10:U10" si="10">R10*1.1</f>
+        <f t="shared" ref="S10:U10" si="9">R10*1.1</f>
         <v>507.86120000000011</v>
       </c>
       <c r="T10" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>558.64732000000015</v>
       </c>
       <c r="U10" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>614.51205200000027</v>
       </c>
       <c r="V10" s="2">
@@ -3314,19 +3394,19 @@
         <v>645.23765460000027</v>
       </c>
       <c r="W10" s="2">
-        <f t="shared" ref="W10:Z10" si="11">V10*1.05</f>
+        <f t="shared" ref="W10:Z10" si="10">V10*1.05</f>
         <v>677.49953733000029</v>
       </c>
       <c r="X10" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>711.37451419650029</v>
       </c>
       <c r="Y10" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>746.94323990632529</v>
       </c>
       <c r="Z10" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>784.29040190164153</v>
       </c>
     </row>
@@ -3374,39 +3454,39 @@
         <v>398.79520000000002</v>
       </c>
       <c r="R11" s="2">
-        <f t="shared" ref="R11:Z11" si="12">Q11*1.03</f>
+        <f t="shared" ref="R11:Z11" si="11">Q11*1.03</f>
         <v>410.75905600000004</v>
       </c>
       <c r="S11" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>423.08182768000006</v>
       </c>
       <c r="T11" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>435.7742825104001</v>
       </c>
       <c r="U11" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>448.84751098571212</v>
       </c>
       <c r="V11" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>462.31293631528348</v>
       </c>
       <c r="W11" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>476.18232440474202</v>
       </c>
       <c r="X11" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>490.46779413688427</v>
       </c>
       <c r="Y11" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>505.1818279609908</v>
       </c>
       <c r="Z11" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>520.33728279982051</v>
       </c>
     </row>
@@ -3505,35 +3585,35 @@
         <v>2928.6788250000004</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" ref="S13:Z13" si="13">R13*1.03</f>
+        <f t="shared" ref="S13:Z13" si="12">R13*1.03</f>
         <v>3016.5391897500003</v>
       </c>
       <c r="T13" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3107.0353654425003</v>
       </c>
       <c r="U13" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3200.2464264057753</v>
       </c>
       <c r="V13" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3296.2538191979488</v>
       </c>
       <c r="W13" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3395.1414337738875</v>
       </c>
       <c r="X13" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3496.995676787104</v>
       </c>
       <c r="Y13" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3601.9055470907174</v>
       </c>
       <c r="Z13" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3709.9627135034389</v>
       </c>
     </row>
@@ -3579,35 +3659,35 @@
         <v>726.44870000000003</v>
       </c>
       <c r="S14" s="2">
-        <f t="shared" ref="S14:Z14" si="14">R14*1.03</f>
+        <f t="shared" ref="S14:Z14" si="13">R14*1.03</f>
         <v>748.24216100000001</v>
       </c>
       <c r="T14" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>770.68942583</v>
       </c>
       <c r="U14" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>793.81010860490005</v>
       </c>
       <c r="V14" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>817.62441186304704</v>
       </c>
       <c r="W14" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>842.15314421893845</v>
       </c>
       <c r="X14" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>867.41773854550661</v>
       </c>
       <c r="Y14" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>893.44027070187178</v>
       </c>
       <c r="Z14" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>920.24347882292795</v>
       </c>
     </row>
@@ -3656,35 +3736,35 @@
         <v>314.97400000000005</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" ref="S15:Z15" si="15">R15*1.03</f>
+        <f t="shared" ref="S15:Z15" si="14">R15*1.03</f>
         <v>324.42322000000007</v>
       </c>
       <c r="T15" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>334.15591660000007</v>
       </c>
       <c r="U15" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>344.18059409800009</v>
       </c>
       <c r="V15" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>354.50601192094013</v>
       </c>
       <c r="W15" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>365.14119227856833</v>
       </c>
       <c r="X15" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>376.09542804692541</v>
       </c>
       <c r="Y15" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>387.3782908883332</v>
       </c>
       <c r="Z15" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>398.99963961498321</v>
       </c>
     </row>
@@ -3711,11 +3791,11 @@
         <v>692</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" ref="I16:J19" si="16">H16*1.03</f>
+        <f t="shared" ref="I16:J19" si="15">H16*1.03</f>
         <v>712.76</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>734.14279999999997</v>
       </c>
       <c r="N16" s="2">
@@ -3732,19 +3812,19 @@
         <v>2694.9027999999998</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" ref="R16:U16" si="17">Q16*1.07</f>
+        <f t="shared" ref="R16:U16" si="16">Q16*1.07</f>
         <v>2883.5459959999998</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>3085.3942157199999</v>
       </c>
       <c r="T16" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>3301.3718108204002</v>
       </c>
       <c r="U16" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>3532.4678375778285</v>
       </c>
       <c r="V16" s="2">
@@ -3752,19 +3832,19 @@
         <v>3638.4418727051634</v>
       </c>
       <c r="W16" s="2">
-        <f t="shared" ref="W16:Z16" si="18">V16*1.03</f>
+        <f t="shared" ref="W16:Z16" si="17">V16*1.03</f>
         <v>3747.5951288863184</v>
       </c>
       <c r="X16" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>3860.0229827529079</v>
       </c>
       <c r="Y16" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>3975.823672235495</v>
       </c>
       <c r="Z16" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>4095.0983824025598</v>
       </c>
     </row>
@@ -3791,11 +3871,11 @@
         <v>260</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>267.8</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>275.834</v>
       </c>
       <c r="N17" s="2">
@@ -3812,39 +3892,39 @@
         <v>1034.634</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" ref="R17:V17" si="19">Q17*1.03</f>
+        <f t="shared" ref="R17:V17" si="18">Q17*1.03</f>
         <v>1065.67302</v>
       </c>
       <c r="S17" s="2">
+        <f t="shared" si="18"/>
+        <v>1097.6432106</v>
+      </c>
+      <c r="T17" s="2">
+        <f t="shared" si="18"/>
+        <v>1130.572506918</v>
+      </c>
+      <c r="U17" s="2">
+        <f t="shared" si="18"/>
+        <v>1164.4896821255402</v>
+      </c>
+      <c r="V17" s="2">
+        <f t="shared" si="18"/>
+        <v>1199.4243725893064</v>
+      </c>
+      <c r="W17" s="2">
+        <f t="shared" ref="W17:Z17" si="19">V17*1.03</f>
+        <v>1235.4071037669855</v>
+      </c>
+      <c r="X17" s="2">
         <f t="shared" si="19"/>
-        <v>1097.6432106</v>
-      </c>
-      <c r="T17" s="2">
+        <v>1272.4693168799952</v>
+      </c>
+      <c r="Y17" s="2">
         <f t="shared" si="19"/>
-        <v>1130.572506918</v>
-      </c>
-      <c r="U17" s="2">
+        <v>1310.6433963863951</v>
+      </c>
+      <c r="Z17" s="2">
         <f t="shared" si="19"/>
-        <v>1164.4896821255402</v>
-      </c>
-      <c r="V17" s="2">
-        <f t="shared" si="19"/>
-        <v>1199.4243725893064</v>
-      </c>
-      <c r="W17" s="2">
-        <f t="shared" ref="W17:Z17" si="20">V17*1.03</f>
-        <v>1235.4071037669855</v>
-      </c>
-      <c r="X17" s="2">
-        <f t="shared" si="20"/>
-        <v>1272.4693168799952</v>
-      </c>
-      <c r="Y17" s="2">
-        <f t="shared" si="20"/>
-        <v>1310.6433963863951</v>
-      </c>
-      <c r="Z17" s="2">
-        <f t="shared" si="20"/>
         <v>1349.9626982779871</v>
       </c>
     </row>
@@ -3871,11 +3951,11 @@
         <v>125</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>128.75</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>132.61250000000001</v>
       </c>
       <c r="N18" s="2">
@@ -3888,43 +3968,43 @@
         <v>494</v>
       </c>
       <c r="Q18" s="2">
-        <f t="shared" ref="Q18:Q26" si="21">SUM(G18:J18)</f>
+        <f t="shared" ref="Q18:Q26" si="20">SUM(G18:J18)</f>
         <v>509.36250000000001</v>
       </c>
       <c r="R18" s="2">
-        <f t="shared" ref="R18:Z18" si="22">Q18*1.03</f>
+        <f t="shared" ref="R18:Z18" si="21">Q18*1.03</f>
         <v>524.64337499999999</v>
       </c>
       <c r="S18" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>540.38267625000003</v>
       </c>
       <c r="T18" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>556.5941565375</v>
       </c>
       <c r="U18" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>573.29198123362505</v>
       </c>
       <c r="V18" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>590.49074067063384</v>
       </c>
       <c r="W18" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>608.20546289075287</v>
       </c>
       <c r="X18" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>626.45162677747544</v>
       </c>
       <c r="Y18" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>645.2451755807997</v>
       </c>
       <c r="Z18" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>664.60253084822375</v>
       </c>
     </row>
@@ -3951,11 +4031,11 @@
         <v>103</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>106.09</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>109.2727</v>
       </c>
       <c r="N19" s="2">
@@ -3968,43 +4048,43 @@
         <v>429</v>
       </c>
       <c r="Q19" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>424.36270000000002</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" ref="R19:Z19" si="23">Q19*1.03</f>
+        <f t="shared" ref="R19:Z19" si="22">Q19*1.03</f>
         <v>437.09358100000003</v>
       </c>
       <c r="S19" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>450.20638843000006</v>
       </c>
       <c r="T19" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>463.71258008290005</v>
       </c>
       <c r="U19" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>477.62395748538705</v>
       </c>
       <c r="V19" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>491.95267620994866</v>
       </c>
       <c r="W19" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>506.71125649624713</v>
       </c>
       <c r="X19" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>521.91259419113453</v>
       </c>
       <c r="Y19" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>537.56997201686863</v>
       </c>
       <c r="Z19" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>553.69707117737471</v>
       </c>
     </row>
@@ -4048,43 +4128,43 @@
         <v>248</v>
       </c>
       <c r="Q20" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>179.16</v>
       </c>
       <c r="R20" s="2">
-        <f t="shared" ref="R20:Z20" si="24">Q20*1.03</f>
+        <f t="shared" ref="R20:Z20" si="23">Q20*1.03</f>
         <v>184.53479999999999</v>
       </c>
       <c r="S20" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>190.07084399999999</v>
       </c>
       <c r="T20" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>195.77296931999999</v>
       </c>
       <c r="U20" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>201.64615839959998</v>
       </c>
       <c r="V20" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>207.695543151588</v>
       </c>
       <c r="W20" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>213.92640944613564</v>
       </c>
       <c r="X20" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>220.34420172951971</v>
       </c>
       <c r="Y20" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>226.95452778140532</v>
       </c>
       <c r="Z20" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>233.76316361484749</v>
       </c>
     </row>
@@ -4111,11 +4191,11 @@
         <v>375</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" ref="I21:J23" si="25">H21*1.03</f>
+        <f t="shared" ref="I21:J23" si="24">H21*1.03</f>
         <v>386.25</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>397.83750000000003</v>
       </c>
       <c r="N21" s="2">
@@ -4128,43 +4208,43 @@
         <v>1311</v>
       </c>
       <c r="Q21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>1465.0875000000001</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" ref="R21:Z21" si="26">Q21*1.03</f>
+        <f t="shared" ref="R21:Z21" si="25">Q21*1.03</f>
         <v>1509.0401250000002</v>
       </c>
       <c r="S21" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>1554.3113287500003</v>
       </c>
       <c r="T21" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>1600.9406686125003</v>
       </c>
       <c r="U21" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>1648.9688886708755</v>
       </c>
       <c r="V21" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>1698.4379553310018</v>
       </c>
       <c r="W21" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>1749.3910939909319</v>
       </c>
       <c r="X21" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>1801.8728268106599</v>
       </c>
       <c r="Y21" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>1855.9290116149798</v>
       </c>
       <c r="Z21" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>1911.6068819634293</v>
       </c>
     </row>
@@ -4191,11 +4271,11 @@
         <v>404</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>416.12</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>428.60360000000003</v>
       </c>
       <c r="N22" s="2">
@@ -4208,43 +4288,43 @@
         <v>1383</v>
       </c>
       <c r="Q22" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>1603.7235999999998</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" ref="R22:Z22" si="27">Q22*1.03</f>
+        <f t="shared" ref="R22:Z22" si="26">Q22*1.03</f>
         <v>1651.8353079999999</v>
       </c>
       <c r="S22" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>1701.3903672399999</v>
       </c>
       <c r="T22" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>1752.4320782571999</v>
       </c>
       <c r="U22" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>1805.0050406049161</v>
       </c>
       <c r="V22" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>1859.1551918230637</v>
       </c>
       <c r="W22" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>1914.9298475777557</v>
       </c>
       <c r="X22" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>1972.3777430050884</v>
       </c>
       <c r="Y22" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>2031.5490752952412</v>
       </c>
       <c r="Z22" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>2092.4955475540987</v>
       </c>
     </row>
@@ -4271,11 +4351,11 @@
         <v>258</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>265.74</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>273.7122</v>
       </c>
       <c r="N23" s="2">
@@ -4288,43 +4368,43 @@
         <v>954</v>
       </c>
       <c r="Q23" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>945.45219999999995</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" ref="R23:Z23" si="28">Q23*1.03</f>
+        <f t="shared" ref="R23:Z23" si="27">Q23*1.03</f>
         <v>973.81576599999994</v>
       </c>
       <c r="S23" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1003.0302389799999</v>
       </c>
       <c r="T23" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1033.1211461493999</v>
       </c>
       <c r="U23" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1064.1147805338819</v>
       </c>
       <c r="V23" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1096.0382239498983</v>
       </c>
       <c r="W23" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1128.9193706683952</v>
       </c>
       <c r="X23" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1162.7869517884471</v>
       </c>
       <c r="Y23" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1197.6705603421005</v>
       </c>
       <c r="Z23" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1233.6006771523637</v>
       </c>
     </row>
@@ -4377,43 +4457,43 @@
         <v>5720</v>
       </c>
       <c r="Q24" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>5237.6425000000008</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" ref="R24:Z24" si="29">Q24*1.03</f>
+        <f t="shared" ref="R24:Z24" si="28">Q24*1.03</f>
         <v>5394.7717750000011</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>5556.614928250001</v>
       </c>
       <c r="T24" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>5723.3133760975015</v>
       </c>
       <c r="U24" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>5895.012777380427</v>
       </c>
       <c r="V24" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>6071.8631607018397</v>
       </c>
       <c r="W24" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>6254.0190555228946</v>
       </c>
       <c r="X24" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>6441.6396271885815</v>
       </c>
       <c r="Y24" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>6634.8888160042388</v>
       </c>
       <c r="Z24" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>6833.9354804843661</v>
       </c>
     </row>
@@ -4423,88 +4503,88 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <f t="shared" ref="C25:J25" si="30">SUM(C3:C24)</f>
+        <f t="shared" ref="C25:J25" si="29">SUM(C3:C24)</f>
         <v>12310</v>
       </c>
       <c r="D25" s="7">
+        <f t="shared" si="29"/>
+        <v>14462</v>
+      </c>
+      <c r="E25" s="7">
+        <f t="shared" si="29"/>
+        <v>14460</v>
+      </c>
+      <c r="F25" s="7">
+        <f t="shared" si="29"/>
+        <v>15102</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="29"/>
+        <v>13343</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" si="29"/>
+        <v>15423</v>
+      </c>
+      <c r="I25" s="7">
+        <f t="shared" si="29"/>
+        <v>15849.830000000002</v>
+      </c>
+      <c r="J25" s="7">
+        <f t="shared" si="29"/>
+        <v>16500.7209</v>
+      </c>
+      <c r="N25" s="7">
+        <f t="shared" ref="N25:V25" si="30">SUM(N3:N24)</f>
+        <v>58054</v>
+      </c>
+      <c r="O25" s="7">
         <f t="shared" si="30"/>
-        <v>14462</v>
-      </c>
-      <c r="E25" s="7">
+        <v>54318</v>
+      </c>
+      <c r="P25" s="7">
         <f t="shared" si="30"/>
-        <v>14460</v>
-      </c>
-      <c r="F25" s="7">
+        <v>56334</v>
+      </c>
+      <c r="Q25" s="7">
         <f t="shared" si="30"/>
-        <v>15102</v>
-      </c>
-      <c r="G25" s="7">
+        <v>61116.550900000002</v>
+      </c>
+      <c r="R25" s="7">
         <f t="shared" si="30"/>
-        <v>13343</v>
-      </c>
-      <c r="H25" s="7">
+        <v>58052.167791000022</v>
+      </c>
+      <c r="S25" s="7">
         <f t="shared" si="30"/>
-        <v>15423</v>
-      </c>
-      <c r="I25" s="7">
+        <v>62139.66990157</v>
+      </c>
+      <c r="T25" s="7">
         <f t="shared" si="30"/>
-        <v>15873.78</v>
-      </c>
-      <c r="J25" s="7">
+        <v>65742.950033678309</v>
+      </c>
+      <c r="U25" s="7">
         <f t="shared" si="30"/>
-        <v>16483.759399999999</v>
-      </c>
-      <c r="N25" s="7">
-        <f t="shared" ref="N25:V25" si="31">SUM(N3:N24)</f>
-        <v>58054</v>
-      </c>
-      <c r="O25" s="7">
+        <v>69581.59493934644</v>
+      </c>
+      <c r="V25" s="7">
+        <f t="shared" si="30"/>
+        <v>73302.752267115458</v>
+      </c>
+      <c r="W25" s="7">
+        <f t="shared" ref="W25:Z25" si="31">SUM(W3:W24)</f>
+        <v>77254.931601643475</v>
+      </c>
+      <c r="X25" s="7">
         <f t="shared" si="31"/>
-        <v>54318</v>
-      </c>
-      <c r="P25" s="7">
+        <v>81453.865045856277</v>
+      </c>
+      <c r="Y25" s="7">
         <f t="shared" si="31"/>
-        <v>56334</v>
-      </c>
-      <c r="Q25" s="7">
+        <v>85916.410419507709</v>
+      </c>
+      <c r="Z25" s="7">
         <f t="shared" si="31"/>
-        <v>61123.539400000009</v>
-      </c>
-      <c r="R25" s="7">
-        <f t="shared" si="31"/>
-        <v>58094.693283000022</v>
-      </c>
-      <c r="S25" s="7">
-        <f t="shared" si="31"/>
-        <v>62179.467231670002</v>
-      </c>
-      <c r="T25" s="7">
-        <f t="shared" si="31"/>
-        <v>66610.184535149718</v>
-      </c>
-      <c r="U25" s="7">
-        <f t="shared" si="31"/>
-        <v>71418.858013826597</v>
-      </c>
-      <c r="V25" s="7">
-        <f t="shared" si="31"/>
-        <v>74385.808906922146</v>
-      </c>
-      <c r="W25" s="7">
-        <f t="shared" ref="W25:Z25" si="32">SUM(W3:W24)</f>
-        <v>77482.987584444651</v>
-      </c>
-      <c r="X25" s="7">
-        <f t="shared" si="32"/>
-        <v>80716.361842808532</v>
-      </c>
-      <c r="Y25" s="7">
-        <f t="shared" si="32"/>
-        <v>84092.181560464887</v>
-      </c>
-      <c r="Z25" s="7">
-        <f t="shared" si="32"/>
-        <v>87616.992312769493</v>
+        <v>90660.633910973018</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
@@ -4524,12 +4604,12 @@
         <v>4346</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" ref="I26:J26" si="33">I25*(1-I41)</f>
-        <v>4762.1340000000009</v>
+        <f t="shared" ref="I26:J26" si="32">I25*(1-I41)</f>
+        <v>4754.9490000000014</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="33"/>
-        <v>4945.1278200000006</v>
+        <f t="shared" si="32"/>
+        <v>4950.2162700000008</v>
       </c>
       <c r="N26" s="2">
         <v>17414</v>
@@ -4541,44 +4621,44 @@
         <v>16904</v>
       </c>
       <c r="Q26" s="2">
-        <f t="shared" si="21"/>
-        <v>18055.261820000003</v>
+        <f t="shared" si="20"/>
+        <v>18053.165270000001</v>
       </c>
       <c r="R26" s="2">
-        <f t="shared" ref="R26:Z26" si="34">R25*(1-R41)</f>
-        <v>17428.407984900008</v>
+        <f t="shared" ref="R26:Z26" si="33">R25*(1-R41)</f>
+        <v>17415.650337300009</v>
       </c>
       <c r="S26" s="2">
-        <f t="shared" si="34"/>
-        <v>18653.840169501003</v>
+        <f t="shared" si="33"/>
+        <v>18641.900970471004</v>
       </c>
       <c r="T26" s="2">
-        <f t="shared" si="34"/>
-        <v>19983.055360544917</v>
+        <f t="shared" si="33"/>
+        <v>19722.885010103495</v>
       </c>
       <c r="U26" s="2">
-        <f t="shared" si="34"/>
-        <v>21425.657404147983</v>
+        <f t="shared" si="33"/>
+        <v>20874.478481803933</v>
       </c>
       <c r="V26" s="2">
-        <f t="shared" si="34"/>
-        <v>22315.742672076649</v>
+        <f t="shared" si="33"/>
+        <v>21990.82568013464</v>
       </c>
       <c r="W26" s="2">
-        <f t="shared" si="34"/>
-        <v>23244.896275333398</v>
+        <f t="shared" si="33"/>
+        <v>23176.479480493046</v>
       </c>
       <c r="X26" s="2">
-        <f t="shared" si="34"/>
-        <v>24214.908552842564</v>
+        <f t="shared" si="33"/>
+        <v>24436.159513756887</v>
       </c>
       <c r="Y26" s="2">
-        <f t="shared" si="34"/>
-        <v>25227.65446813947</v>
+        <f t="shared" si="33"/>
+        <v>25774.923125852318</v>
       </c>
       <c r="Z26" s="2">
-        <f t="shared" si="34"/>
-        <v>26285.097693830852</v>
+        <f t="shared" si="33"/>
+        <v>27198.19017329191</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
@@ -4590,84 +4670,84 @@
         <v>8216</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" ref="D27:J27" si="35">D25-D26</f>
+        <f t="shared" ref="D27:J27" si="34">D25-D26</f>
         <v>10260</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>14460</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>15102</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>9341</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>11077</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="35"/>
-        <v>11111.646000000001</v>
+        <f t="shared" si="34"/>
+        <v>11094.881000000001</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="35"/>
-        <v>11538.631579999997</v>
+        <f t="shared" si="34"/>
+        <v>11550.504629999999</v>
       </c>
       <c r="N27" s="2">
         <f>N25-N26</f>
         <v>40640</v>
       </c>
       <c r="O27" s="2">
-        <f t="shared" ref="O27:Z27" si="36">O25-O26</f>
+        <f t="shared" ref="O27:Z27" si="35">O25-O26</f>
         <v>33903</v>
       </c>
       <c r="P27" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>39430</v>
       </c>
       <c r="Q27" s="2">
-        <f t="shared" si="36"/>
-        <v>43068.277580000009</v>
+        <f t="shared" si="35"/>
+        <v>43063.385630000004</v>
       </c>
       <c r="R27" s="2">
-        <f t="shared" si="36"/>
-        <v>40666.285298100018</v>
+        <f t="shared" si="35"/>
+        <v>40636.517453700013</v>
       </c>
       <c r="S27" s="2">
-        <f t="shared" si="36"/>
-        <v>43525.627062168998</v>
+        <f t="shared" si="35"/>
+        <v>43497.768931098995</v>
       </c>
       <c r="T27" s="2">
-        <f t="shared" si="36"/>
-        <v>46627.129174604801</v>
+        <f t="shared" si="35"/>
+        <v>46020.065023574818</v>
       </c>
       <c r="U27" s="2">
-        <f t="shared" si="36"/>
-        <v>49993.200609678614</v>
+        <f t="shared" si="35"/>
+        <v>48707.116457542506</v>
       </c>
       <c r="V27" s="2">
-        <f t="shared" si="36"/>
-        <v>52070.066234845493</v>
+        <f t="shared" si="35"/>
+        <v>51311.926586980815</v>
       </c>
       <c r="W27" s="2">
-        <f t="shared" si="36"/>
-        <v>54238.091309111252</v>
+        <f t="shared" si="35"/>
+        <v>54078.452121150433</v>
       </c>
       <c r="X27" s="2">
-        <f t="shared" si="36"/>
-        <v>56501.453289965968</v>
+        <f t="shared" si="35"/>
+        <v>57017.70553209939</v>
       </c>
       <c r="Y27" s="2">
-        <f t="shared" si="36"/>
-        <v>58864.527092325414</v>
+        <f t="shared" si="35"/>
+        <v>60141.487293655387</v>
       </c>
       <c r="Z27" s="2">
-        <f t="shared" si="36"/>
-        <v>61331.894618938641</v>
+        <f t="shared" si="35"/>
+        <v>63462.443737681111</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
@@ -4708,39 +4788,39 @@
         <v>13347.697700000001</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" ref="R28:Z28" si="37">Q28*1.02</f>
+        <f t="shared" ref="R28:Z28" si="36">Q28*1.02</f>
         <v>13614.651654000001</v>
       </c>
       <c r="S28" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>13886.944687080002</v>
       </c>
       <c r="T28" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>14164.683580821602</v>
       </c>
       <c r="U28" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>14447.977252438035</v>
       </c>
       <c r="V28" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>14736.936797486796</v>
       </c>
       <c r="W28" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>15031.675533436533</v>
       </c>
       <c r="X28" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>15332.309044105265</v>
       </c>
       <c r="Y28" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>15638.95522498737</v>
       </c>
       <c r="Z28" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>15951.734329487119</v>
       </c>
     </row>
@@ -4783,31 +4863,31 @@
         <v>5254</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" ref="D30:J30" si="38">SUM(D28:D29)</f>
+        <f t="shared" ref="D30:J30" si="37">SUM(D28:D29)</f>
         <v>5325</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>5360</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>5201</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>3350.59</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>3451.1077</v>
       </c>
       <c r="N30" s="2">
@@ -4815,51 +4895,51 @@
         <v>21770</v>
       </c>
       <c r="O30" s="2">
-        <f t="shared" ref="O30:Z30" si="39">O28+O29</f>
+        <f t="shared" ref="O30:Z30" si="38">O28+O29</f>
         <v>20547</v>
       </c>
       <c r="P30" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>27543</v>
       </c>
       <c r="Q30" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>17362.697700000001</v>
       </c>
       <c r="R30" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>13614.651654000001</v>
       </c>
       <c r="S30" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>13886.944687080002</v>
       </c>
       <c r="T30" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>14164.683580821602</v>
       </c>
       <c r="U30" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>14447.977252438035</v>
       </c>
       <c r="V30" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>14736.936797486796</v>
       </c>
       <c r="W30" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>15031.675533436533</v>
       </c>
       <c r="X30" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>15332.309044105265</v>
       </c>
       <c r="Y30" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>15638.95522498737</v>
       </c>
       <c r="Z30" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>15951.734329487119</v>
       </c>
     </row>
@@ -4872,84 +4952,84 @@
         <v>2962</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" ref="D31:J31" si="40">D27-D30</f>
+        <f t="shared" ref="D31:J31" si="39">D27-D30</f>
         <v>4935</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>14460</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>15102</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>3981</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>5876</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="40"/>
-        <v>7761.0560000000005</v>
+        <f t="shared" si="39"/>
+        <v>7744.2910000000011</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="40"/>
-        <v>8087.523879999997</v>
+        <f t="shared" si="39"/>
+        <v>8099.396929999999</v>
       </c>
       <c r="N31" s="2">
         <f>N27-N30</f>
         <v>18870</v>
       </c>
       <c r="O31" s="2">
-        <f t="shared" ref="O31:Z31" si="41">O27-O30</f>
+        <f t="shared" ref="O31:Z31" si="40">O27-O30</f>
         <v>13356</v>
       </c>
       <c r="P31" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>11887</v>
       </c>
       <c r="Q31" s="2">
-        <f t="shared" si="41"/>
-        <v>25705.579880000008</v>
+        <f t="shared" si="40"/>
+        <v>25700.687930000004</v>
       </c>
       <c r="R31" s="2">
-        <f t="shared" si="41"/>
-        <v>27051.633644100017</v>
+        <f t="shared" si="40"/>
+        <v>27021.865799700012</v>
       </c>
       <c r="S31" s="2">
-        <f t="shared" si="41"/>
-        <v>29638.682375088996</v>
+        <f t="shared" si="40"/>
+        <v>29610.824244018993</v>
       </c>
       <c r="T31" s="2">
-        <f t="shared" si="41"/>
-        <v>32462.445593783199</v>
+        <f t="shared" si="40"/>
+        <v>31855.381442753216</v>
       </c>
       <c r="U31" s="2">
-        <f t="shared" si="41"/>
-        <v>35545.223357240582</v>
+        <f t="shared" si="40"/>
+        <v>34259.139205104468</v>
       </c>
       <c r="V31" s="2">
-        <f t="shared" si="41"/>
-        <v>37333.129437358701</v>
+        <f t="shared" si="40"/>
+        <v>36574.989789494022</v>
       </c>
       <c r="W31" s="2">
-        <f t="shared" si="41"/>
-        <v>39206.415775674715</v>
+        <f t="shared" si="40"/>
+        <v>39046.776587713903</v>
       </c>
       <c r="X31" s="2">
-        <f t="shared" si="41"/>
-        <v>41169.144245860705</v>
+        <f t="shared" si="40"/>
+        <v>41685.396487994127</v>
       </c>
       <c r="Y31" s="2">
-        <f t="shared" si="41"/>
-        <v>43225.571867338047</v>
+        <f t="shared" si="40"/>
+        <v>44502.532068668021</v>
       </c>
       <c r="Z31" s="2">
-        <f t="shared" si="41"/>
-        <v>45380.160289451524</v>
+        <f t="shared" si="40"/>
+        <v>47510.709408193994</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
@@ -4974,7 +5054,7 @@
       </c>
       <c r="J32" s="2">
         <f>I46*$AC$38/2</f>
-        <v>-595.9187154</v>
+        <v>-596.05451189999997</v>
       </c>
       <c r="N32" s="2">
         <v>-2044</v>
@@ -4987,43 +5067,43 @@
       </c>
       <c r="Q32" s="2">
         <f>SUM(G32:J32)</f>
-        <v>-2554.4087153999999</v>
+        <v>-2554.5445119000001</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" ref="R32:Z32" si="42">Q46*$AC$38</f>
-        <v>-1070.4734271334801</v>
+        <f t="shared" ref="R32:Z32" si="41">Q46*$AC$38</f>
+        <v>-1070.55487662678</v>
       </c>
       <c r="S32" s="2">
-        <f t="shared" si="42"/>
-        <v>-649.57863161862213</v>
+        <f t="shared" si="41"/>
+        <v>-650.14363967299369</v>
       </c>
       <c r="T32" s="2">
-        <f t="shared" si="42"/>
-        <v>-179.95515097440207</v>
+        <f t="shared" si="41"/>
+        <v>-180.98061388258853</v>
       </c>
       <c r="U32" s="2">
-        <f t="shared" si="42"/>
-        <v>343.02119419910042</v>
+        <f t="shared" si="41"/>
+        <v>332.14467954511565</v>
       </c>
       <c r="V32" s="2">
-        <f t="shared" si="42"/>
-        <v>924.4107559324234</v>
+        <f t="shared" si="41"/>
+        <v>892.52347847643887</v>
       </c>
       <c r="W32" s="2">
-        <f t="shared" si="42"/>
-        <v>1544.1829070637395</v>
+        <f t="shared" si="41"/>
+        <v>1499.4971934175605</v>
       </c>
       <c r="X32" s="2">
-        <f t="shared" si="42"/>
-        <v>2204.3426057241027</v>
+        <f t="shared" si="41"/>
+        <v>2156.3468286718903</v>
       </c>
       <c r="Y32" s="2">
-        <f t="shared" si="42"/>
-        <v>2906.9930927197765</v>
+        <f t="shared" si="41"/>
+        <v>2866.5830704018799</v>
       </c>
       <c r="Z32" s="2">
-        <f t="shared" si="42"/>
-        <v>3654.340645072713</v>
+        <f t="shared" si="41"/>
+        <v>3633.9627356548126</v>
       </c>
     </row>
     <row r="33" spans="1:136" x14ac:dyDescent="0.2">
@@ -5065,84 +5145,84 @@
         <v>1923</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" ref="D34:J34" si="43">D31+D33+D32</f>
+        <f t="shared" ref="D34:J34" si="42">D31+D33+D32</f>
         <v>3084</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>14460</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>15102</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>1913</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>2559</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" si="43"/>
-        <v>7107.5660000000007</v>
+        <f t="shared" si="42"/>
+        <v>7090.8010000000013</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="43"/>
-        <v>7491.6051645999969</v>
+        <f t="shared" si="42"/>
+        <v>7503.3424180999991</v>
       </c>
       <c r="N34" s="2">
         <f>N31+N32+N33</f>
         <v>14378</v>
       </c>
       <c r="O34" s="2">
-        <f t="shared" ref="O34:Z34" si="44">O31+O32+O33</f>
+        <f t="shared" ref="O34:Z34" si="43">O31+O32+O33</f>
         <v>6995</v>
       </c>
       <c r="P34" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>6487</v>
       </c>
       <c r="Q34" s="2">
-        <f t="shared" si="44"/>
-        <v>19071.171164600008</v>
+        <f t="shared" si="43"/>
+        <v>19066.143418100004</v>
       </c>
       <c r="R34" s="2">
-        <f t="shared" si="44"/>
-        <v>25981.160216966535</v>
+        <f t="shared" si="43"/>
+        <v>25951.310923073233</v>
       </c>
       <c r="S34" s="2">
-        <f t="shared" si="44"/>
-        <v>28989.103743470376</v>
+        <f t="shared" si="43"/>
+        <v>28960.680604345998</v>
       </c>
       <c r="T34" s="2">
-        <f t="shared" si="44"/>
-        <v>32282.490442808798</v>
+        <f t="shared" si="43"/>
+        <v>31674.400828870628</v>
       </c>
       <c r="U34" s="2">
-        <f t="shared" si="44"/>
-        <v>35888.244551439682</v>
+        <f t="shared" si="43"/>
+        <v>34591.283884649587</v>
       </c>
       <c r="V34" s="2">
-        <f t="shared" si="44"/>
-        <v>38257.540193291126</v>
+        <f t="shared" si="43"/>
+        <v>37467.513267970462</v>
       </c>
       <c r="W34" s="2">
-        <f t="shared" si="44"/>
-        <v>40750.598682738455</v>
+        <f t="shared" si="43"/>
+        <v>40546.273781131466</v>
       </c>
       <c r="X34" s="2">
-        <f t="shared" si="44"/>
-        <v>43373.486851584807</v>
+        <f t="shared" si="43"/>
+        <v>43841.743316666019</v>
       </c>
       <c r="Y34" s="2">
-        <f t="shared" si="44"/>
-        <v>46132.564960057825</v>
+        <f t="shared" si="43"/>
+        <v>47369.115139069901</v>
       </c>
       <c r="Z34" s="2">
-        <f t="shared" si="44"/>
-        <v>49034.500934524236</v>
+        <f t="shared" si="43"/>
+        <v>51144.672143848809</v>
       </c>
     </row>
     <row r="35" spans="1:136" x14ac:dyDescent="0.2">
@@ -5163,11 +5243,11 @@
       </c>
       <c r="I35" s="2">
         <f>I34*0.19</f>
-        <v>1350.4375400000001</v>
+        <v>1347.2521900000002</v>
       </c>
       <c r="J35" s="2">
         <f>J34*0.19</f>
-        <v>1423.4049812739995</v>
+        <v>1425.6350594389999</v>
       </c>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
@@ -5182,43 +5262,43 @@
       </c>
       <c r="Q35" s="2">
         <f>SUM(G35:J35)</f>
-        <v>3758.8425212739994</v>
+        <v>3757.8872494389998</v>
       </c>
       <c r="R35" s="2">
         <f>R34*0.19</f>
-        <v>4936.4204412236413</v>
+        <v>4930.7490753839147</v>
       </c>
       <c r="S35" s="2">
-        <f t="shared" ref="S35:Z35" si="45">S34*0.19</f>
-        <v>5507.9297112593713</v>
+        <f t="shared" ref="S35:Z35" si="44">S34*0.19</f>
+        <v>5502.5293148257397</v>
       </c>
       <c r="T35" s="2">
-        <f t="shared" si="45"/>
-        <v>6133.6731841336714</v>
+        <f t="shared" si="44"/>
+        <v>6018.1361574854191</v>
       </c>
       <c r="U35" s="2">
-        <f t="shared" si="45"/>
-        <v>6818.7664647735401</v>
+        <f t="shared" si="44"/>
+        <v>6572.3439380834216</v>
       </c>
       <c r="V35" s="2">
-        <f t="shared" si="45"/>
-        <v>7268.9326367253143</v>
+        <f t="shared" si="44"/>
+        <v>7118.8275209143876</v>
       </c>
       <c r="W35" s="2">
-        <f t="shared" si="45"/>
-        <v>7742.6137497203063</v>
+        <f t="shared" si="44"/>
+        <v>7703.7920184149789</v>
       </c>
       <c r="X35" s="2">
-        <f t="shared" si="45"/>
-        <v>8240.9625018011138</v>
+        <f t="shared" si="44"/>
+        <v>8329.9312301665432</v>
       </c>
       <c r="Y35" s="2">
-        <f t="shared" si="45"/>
-        <v>8765.1873424109872</v>
+        <f t="shared" si="44"/>
+        <v>9000.1318764232819</v>
       </c>
       <c r="Z35" s="2">
-        <f t="shared" si="45"/>
-        <v>9316.555177559605</v>
+        <f t="shared" si="44"/>
+        <v>9717.4877073312746</v>
       </c>
     </row>
     <row r="36" spans="1:136" x14ac:dyDescent="0.2">
@@ -5230,524 +5310,524 @@
         <v>1540</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" ref="D36:J36" si="46">D34-D35</f>
+        <f t="shared" ref="D36:J36" si="45">D34-D35</f>
         <v>2311</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>14460</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>15102</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1541</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>1946</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="46"/>
-        <v>5757.1284600000008</v>
+        <f t="shared" si="45"/>
+        <v>5743.5488100000011</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="46"/>
-        <v>6068.2001833259974</v>
+        <f t="shared" si="45"/>
+        <v>6077.7073586609995</v>
       </c>
       <c r="N36" s="2">
         <f>N34-N35</f>
         <v>12746</v>
       </c>
       <c r="O36" s="2">
-        <f t="shared" ref="O36:Z36" si="47">O34-O35</f>
+        <f t="shared" ref="O36:Z36" si="46">O34-O35</f>
         <v>5618</v>
       </c>
       <c r="P36" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>7057</v>
       </c>
       <c r="Q36" s="2">
-        <f t="shared" si="47"/>
-        <v>15312.328643326007</v>
+        <f t="shared" si="46"/>
+        <v>15308.256168661004</v>
       </c>
       <c r="R36" s="2">
-        <f t="shared" si="47"/>
-        <v>21044.739775742892</v>
+        <f t="shared" si="46"/>
+        <v>21020.561847689318</v>
       </c>
       <c r="S36" s="2">
-        <f t="shared" si="47"/>
-        <v>23481.174032211005</v>
+        <f t="shared" si="46"/>
+        <v>23458.151289520258</v>
       </c>
       <c r="T36" s="2">
-        <f t="shared" si="47"/>
-        <v>26148.817258675124</v>
+        <f t="shared" si="46"/>
+        <v>25656.264671385208</v>
       </c>
       <c r="U36" s="2">
-        <f t="shared" si="47"/>
-        <v>29069.478086666142</v>
+        <f t="shared" si="46"/>
+        <v>28018.939946566166</v>
       </c>
       <c r="V36" s="2">
-        <f t="shared" si="47"/>
-        <v>30988.60755656581</v>
+        <f t="shared" si="46"/>
+        <v>30348.685747056075</v>
       </c>
       <c r="W36" s="2">
-        <f t="shared" si="47"/>
-        <v>33007.984933018146</v>
+        <f t="shared" si="46"/>
+        <v>32842.481762716488</v>
       </c>
       <c r="X36" s="2">
-        <f t="shared" si="47"/>
-        <v>35132.524349783693</v>
+        <f t="shared" si="46"/>
+        <v>35511.812086499478</v>
       </c>
       <c r="Y36" s="2">
-        <f t="shared" si="47"/>
-        <v>37367.377617646838</v>
+        <f t="shared" si="46"/>
+        <v>38368.983262646623</v>
       </c>
       <c r="Z36" s="2">
-        <f t="shared" si="47"/>
-        <v>39717.945756964633</v>
+        <f t="shared" si="46"/>
+        <v>41427.184436517535</v>
       </c>
       <c r="AA36" s="2">
         <f>Z36*(1+AC39)</f>
-        <v>39320.766299394985</v>
+        <v>41012.912592152359</v>
       </c>
       <c r="AB36" s="2">
-        <f t="shared" ref="AB36:CM36" si="48">AA36*(1+AD39)</f>
-        <v>39320.766299394985</v>
+        <f t="shared" ref="AB36:CM36" si="47">AA36*(1+AD39)</f>
+        <v>41012.912592152359</v>
       </c>
       <c r="AC36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="AD36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="AE36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="AF36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="AG36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="AH36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="AI36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="AJ36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="AK36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="AL36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="AM36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="AN36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="AO36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="AP36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="AQ36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="AR36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="AS36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="AT36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="AU36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="AV36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="AW36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="AX36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="AY36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="AZ36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="BA36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="BB36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="BC36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="BD36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="BE36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="BF36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="BG36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="BH36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="BI36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="BJ36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="BK36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="BL36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="BM36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="BN36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="BO36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="BP36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="BQ36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="BR36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="BS36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="BT36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="BU36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="BV36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="BW36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="BX36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="BY36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="BZ36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="CA36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="CB36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="CC36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="CD36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="CE36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="CF36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="CG36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="CH36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="CI36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="CJ36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="CK36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="CL36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="CM36" s="2">
+        <f t="shared" si="47"/>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="CN36" s="2">
+        <f t="shared" ref="CN36:EF36" si="48">CM36*(1+CP39)</f>
+        <v>41012.912592152359</v>
+      </c>
+      <c r="CO36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="AD36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="CP36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="AE36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="CQ36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="AF36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="CR36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="AG36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="CS36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="AH36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="CT36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="AI36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="CU36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="AJ36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="CV36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="AK36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="CW36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="AL36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="CX36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="AM36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="CY36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="AN36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="CZ36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="AO36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="DA36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="AP36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="DB36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="AQ36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="DC36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="AR36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="DD36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="AS36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="DE36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="AT36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="DF36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="AU36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="DG36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="AV36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="DH36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="AW36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="DI36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="AX36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="DJ36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="AY36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="DK36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="AZ36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="DL36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="BA36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="DM36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="BB36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="DN36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="BC36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="DO36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="BD36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="DP36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="BE36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="DQ36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="BF36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="DR36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="BG36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="DS36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="BH36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="DT36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="BI36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="DU36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="BJ36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="DV36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="BK36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="DW36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="BL36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="DX36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="BM36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="DY36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="BN36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="DZ36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="BO36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="EA36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="BP36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="EB36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="BQ36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="EC36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="BR36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="ED36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="BS36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="EE36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="BT36" s="2">
+        <v>41012.912592152359</v>
+      </c>
+      <c r="EF36" s="2">
         <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="BU36" s="2">
-        <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="BV36" s="2">
-        <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="BW36" s="2">
-        <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="BX36" s="2">
-        <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="BY36" s="2">
-        <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="BZ36" s="2">
-        <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="CA36" s="2">
-        <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="CB36" s="2">
-        <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="CC36" s="2">
-        <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="CD36" s="2">
-        <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="CE36" s="2">
-        <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="CF36" s="2">
-        <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="CG36" s="2">
-        <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="CH36" s="2">
-        <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="CI36" s="2">
-        <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="CJ36" s="2">
-        <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="CK36" s="2">
-        <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="CL36" s="2">
-        <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="CM36" s="2">
-        <f t="shared" si="48"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="CN36" s="2">
-        <f t="shared" ref="CN36:EF36" si="49">CM36*(1+CP39)</f>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="CO36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="CP36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="CQ36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="CR36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="CS36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="CT36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="CU36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="CV36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="CW36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="CX36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="CY36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="CZ36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="DA36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="DB36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="DC36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="DD36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="DE36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="DF36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="DG36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="DH36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="DI36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="DJ36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="DK36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="DL36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="DM36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="DN36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="DO36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="DP36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="DQ36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="DR36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="DS36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="DT36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="DU36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="DV36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="DW36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="DX36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="DY36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="DZ36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="EA36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="EB36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="EC36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="ED36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="EE36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
-      </c>
-      <c r="EF36" s="2">
-        <f t="shared" si="49"/>
-        <v>39320.766299394985</v>
+        <v>41012.912592152359</v>
       </c>
     </row>
     <row r="37" spans="1:136" x14ac:dyDescent="0.2">
@@ -5767,11 +5847,11 @@
         <v>1771</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" ref="I37:J37" si="50">H37</f>
+        <f t="shared" ref="I37:J37" si="49">H37</f>
         <v>1771</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>1771</v>
       </c>
       <c r="N37" s="2">
@@ -5788,39 +5868,39 @@
         <v>1771</v>
       </c>
       <c r="R37" s="2">
-        <f t="shared" ref="R37:Z37" si="51">Q37</f>
+        <f t="shared" ref="R37:Z37" si="50">Q37</f>
         <v>1771</v>
       </c>
       <c r="S37" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1771</v>
       </c>
       <c r="T37" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1771</v>
       </c>
       <c r="U37" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1771</v>
       </c>
       <c r="V37" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1771</v>
       </c>
       <c r="W37" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1771</v>
       </c>
       <c r="X37" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1771</v>
       </c>
       <c r="Y37" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1771</v>
       </c>
       <c r="Z37" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>1771</v>
       </c>
     </row>
@@ -5837,11 +5917,11 @@
         <v>1.3049124788255222</v>
       </c>
       <c r="E38" s="1" t="e">
-        <f t="shared" ref="E38:F38" si="52">E36/E37</f>
+        <f t="shared" ref="E38:F38" si="51">E36/E37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F38" s="1" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G38" s="1">
@@ -5849,68 +5929,68 @@
         <v>0.87160633484162897</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" ref="H38:J38" si="53">H36/H37</f>
+        <f t="shared" ref="H38:J38" si="52">H36/H37</f>
         <v>1.098814229249012</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="53"/>
-        <v>3.250778351214004</v>
+        <f t="shared" si="52"/>
+        <v>3.2431105646527394</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="53"/>
-        <v>3.4264258516804049</v>
+        <f t="shared" si="52"/>
+        <v>3.431794104269339</v>
       </c>
       <c r="N38" s="1">
         <f>N36/N37</f>
         <v>7.1970638057594583</v>
       </c>
       <c r="O38" s="1">
-        <f t="shared" ref="O38:P38" si="54">O36/O37</f>
+        <f t="shared" ref="O38:P38" si="53">O36/O37</f>
         <v>3.1776018099547509</v>
       </c>
       <c r="P38" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>3.9892594686263427</v>
       </c>
       <c r="Q38" s="1">
-        <f t="shared" ref="Q38" si="55">Q36/Q37</f>
-        <v>8.6461483022732963</v>
+        <f t="shared" ref="Q38" si="54">Q36/Q37</f>
+        <v>8.6438487683009626</v>
       </c>
       <c r="R38" s="1">
-        <f t="shared" ref="R38" si="56">R36/R37</f>
-        <v>11.882969946777466</v>
+        <f t="shared" ref="R38" si="55">R36/R37</f>
+        <v>11.869317813489168</v>
       </c>
       <c r="S38" s="1">
-        <f t="shared" ref="S38" si="57">S36/S37</f>
-        <v>13.258709222027671</v>
+        <f t="shared" ref="S38" si="56">S36/S37</f>
+        <v>13.245709367318044</v>
       </c>
       <c r="T38" s="1">
-        <f t="shared" ref="T38" si="58">T36/T37</f>
-        <v>14.765001275367094</v>
+        <f t="shared" ref="T38" si="57">T36/T37</f>
+        <v>14.486880108066181</v>
       </c>
       <c r="U38" s="1">
-        <f t="shared" ref="U38" si="59">U36/U37</f>
-        <v>16.414160410314029</v>
+        <f t="shared" ref="U38" si="58">U36/U37</f>
+        <v>15.820971172538773</v>
       </c>
       <c r="V38" s="1">
-        <f t="shared" ref="V38" si="60">V36/V37</f>
-        <v>17.497802121155171</v>
+        <f t="shared" ref="V38" si="59">V36/V37</f>
+        <v>17.136468518947531</v>
       </c>
       <c r="W38" s="1">
-        <f t="shared" ref="W38" si="61">W36/W37</f>
-        <v>18.638049086966767</v>
+        <f t="shared" ref="W38" si="60">W36/W37</f>
+        <v>18.544597268614616</v>
       </c>
       <c r="X38" s="1">
-        <f t="shared" ref="X38" si="62">X36/X37</f>
-        <v>19.837676086834382</v>
+        <f t="shared" ref="X38" si="61">X36/X37</f>
+        <v>20.051841946075367</v>
       </c>
       <c r="Y38" s="1">
-        <f t="shared" ref="Y38" si="63">Y36/Y37</f>
-        <v>21.099592104825994</v>
+        <f t="shared" ref="Y38" si="62">Y36/Y37</f>
+        <v>21.665151475238069</v>
       </c>
       <c r="Z38" s="1">
-        <f t="shared" ref="Z38" si="64">Z36/Z37</f>
-        <v>22.426846841877264</v>
+        <f t="shared" ref="Z38" si="63">Z36/Z37</f>
+        <v>23.391973143149372</v>
       </c>
       <c r="AB38" s="2" t="s">
         <v>51</v>
@@ -5937,16 +6017,16 @@
         <v>8.3915515840779831E-2</v>
       </c>
       <c r="H40" s="9">
-        <f t="shared" ref="H40:J40" si="65">H25/D25-1</f>
+        <f t="shared" ref="H40:J40" si="64">H25/D25-1</f>
         <v>6.6450006914672954E-2</v>
       </c>
       <c r="I40" s="9">
-        <f t="shared" si="65"/>
-        <v>9.77717842323651E-2</v>
+        <f t="shared" si="64"/>
+        <v>9.6115491009681975E-2</v>
       </c>
       <c r="J40" s="9">
-        <f t="shared" si="65"/>
-        <v>9.1495126473314814E-2</v>
+        <f t="shared" si="64"/>
+        <v>9.2618255860150933E-2</v>
       </c>
       <c r="O40" s="9">
         <f>O25/N25-1</f>
@@ -5957,44 +6037,44 @@
         <v>3.7114768584999513E-2</v>
       </c>
       <c r="Q40" s="9">
-        <f t="shared" ref="Q40:Z40" si="66">Q25/P25-1</f>
-        <v>8.5020403308836645E-2</v>
+        <f t="shared" ref="Q40:Z40" si="65">Q25/P25-1</f>
+        <v>8.4896348563922253E-2</v>
       </c>
       <c r="R40" s="9">
-        <f t="shared" si="66"/>
-        <v>-4.9552858796000687E-2</v>
+        <f t="shared" si="65"/>
+        <v>-5.0139987677216613E-2</v>
       </c>
       <c r="S40" s="9">
-        <f t="shared" si="66"/>
-        <v>7.0312342106215953E-2</v>
+        <f t="shared" si="65"/>
+        <v>7.0410843661960154E-2</v>
       </c>
       <c r="T40" s="9">
-        <f t="shared" si="66"/>
-        <v>7.1256919699418164E-2</v>
+        <f t="shared" si="65"/>
+        <v>5.7986792298960532E-2</v>
       </c>
       <c r="U40" s="9">
-        <f t="shared" si="66"/>
-        <v>7.2191264927953691E-2</v>
+        <f t="shared" si="65"/>
+        <v>5.838869268418434E-2</v>
       </c>
       <c r="V40" s="9">
-        <f t="shared" si="66"/>
-        <v>4.1542961839590831E-2</v>
+        <f t="shared" si="65"/>
+        <v>5.3479046161743149E-2</v>
       </c>
       <c r="W40" s="9">
-        <f t="shared" si="66"/>
-        <v>4.1636687468142641E-2</v>
+        <f t="shared" si="65"/>
+        <v>5.3915838250196524E-2</v>
       </c>
       <c r="X40" s="9">
-        <f t="shared" si="66"/>
-        <v>4.1730118561058349E-2</v>
+        <f t="shared" si="65"/>
+        <v>5.4351655708714253E-2</v>
       </c>
       <c r="Y40" s="9">
-        <f t="shared" si="66"/>
-        <v>4.1823239310892379E-2</v>
+        <f t="shared" si="65"/>
+        <v>5.478617093417415E-2</v>
       </c>
       <c r="Z40" s="9">
-        <f t="shared" si="66"/>
-        <v>4.1916034129405366E-2</v>
+        <f t="shared" si="65"/>
+        <v>5.5219060809227116E-2</v>
       </c>
       <c r="AB40" s="2" t="s">
         <v>53</v>
@@ -6012,23 +6092,23 @@
         <v>0.66742485783915517</v>
       </c>
       <c r="D41" s="10">
-        <f t="shared" ref="D41:H41" si="67">D27/D25</f>
+        <f t="shared" ref="D41:H41" si="66">D27/D25</f>
         <v>0.70944544323053516</v>
       </c>
       <c r="E41" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="F41" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="G41" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>0.70006745109795399</v>
       </c>
       <c r="H41" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>0.71821305841924399</v>
       </c>
       <c r="I41" s="10">
@@ -6038,20 +6118,20 @@
         <v>0.7</v>
       </c>
       <c r="N41" s="10">
-        <f t="shared" ref="N41:Q41" si="68">N27/N25</f>
+        <f t="shared" ref="N41:Q41" si="67">N27/N25</f>
         <v>0.70003789575223063</v>
       </c>
       <c r="O41" s="10">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>0.6241577377664862</v>
       </c>
       <c r="P41" s="10">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>0.69993254517698011</v>
       </c>
       <c r="Q41" s="10">
-        <f t="shared" si="68"/>
-        <v>0.7046103351141999</v>
+        <f t="shared" si="67"/>
+        <v>0.70461086229262326</v>
       </c>
       <c r="R41" s="10">
         <v>0.7</v>
@@ -6085,7 +6165,7 @@
       </c>
       <c r="AC41" s="2">
         <f>NPV(AC40,Q36:XFD36)+Main!L5-Main!L6</f>
-        <v>412792.93660731037</v>
+        <v>425010.79809717945</v>
       </c>
       <c r="AD41" s="10"/>
     </row>
@@ -6106,11 +6186,11 @@
         <v>-3.6718981344388557E-2</v>
       </c>
       <c r="I42" s="10" t="e">
-        <f t="shared" ref="I42:J42" si="69">I28/E28-1</f>
+        <f t="shared" ref="I42:J42" si="68">I28/E28-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J42" s="10" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N42" s="10"/>
@@ -6123,43 +6203,43 @@
         <v>0.14605344934742082</v>
       </c>
       <c r="Q42" s="10">
-        <f t="shared" ref="Q42:Z42" si="70">Q28/P28-1</f>
+        <f t="shared" ref="Q42:Z42" si="69">Q28/P28-1</f>
         <v>-9.5194027928416469E-2</v>
       </c>
       <c r="R42" s="10">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="S42" s="10">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="T42" s="10">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="U42" s="10">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="V42" s="10">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="W42" s="10">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="X42" s="10">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="Y42" s="10">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="Z42" s="10">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AB42" s="2" t="s">
@@ -6167,7 +6247,7 @@
       </c>
       <c r="AC42" s="1">
         <f>AC41/Main!L3</f>
-        <v>233.69165342352261</v>
+        <v>240.60846812566771</v>
       </c>
     </row>
     <row r="43" spans="1:136" x14ac:dyDescent="0.2">
@@ -6180,19 +6260,19 @@
         <v>0.35806772908366535</v>
       </c>
       <c r="E43" s="10">
-        <f t="shared" ref="E43:H43" si="71">E3/D3-1</f>
+        <f t="shared" ref="E43:H43" si="70">E3/D3-1</f>
         <v>0.17528419508617521</v>
       </c>
       <c r="F43" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>0.17878315132605294</v>
       </c>
       <c r="G43" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>-9.3435680254102649E-2</v>
       </c>
       <c r="H43" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>0.29138686131386859</v>
       </c>
       <c r="I43" s="10"/>
@@ -6212,7 +6292,7 @@
       <c r="Z43" s="10"/>
       <c r="AC43" s="10">
         <f>AC42/Main!L2-1</f>
-        <v>0.19841873550524425</v>
+        <v>0.23388958013162919</v>
       </c>
     </row>
     <row r="44" spans="1:136" x14ac:dyDescent="0.2">
@@ -6225,19 +6305,19 @@
         <v>0.30832570905763945</v>
       </c>
       <c r="E44" s="10">
-        <f t="shared" ref="E44:H44" si="72">E4/D4-1</f>
+        <f t="shared" ref="E44:H44" si="71">E4/D4-1</f>
         <v>0.12867132867132858</v>
       </c>
       <c r="F44" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>0.13630731102850069</v>
       </c>
       <c r="G44" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>-6.3249727371864739E-2</v>
       </c>
       <c r="H44" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>0.18044237485448189</v>
       </c>
       <c r="I44" s="10"/>
@@ -6271,11 +6351,11 @@
       </c>
       <c r="I46" s="2">
         <f>H46+I36</f>
-        <v>-59591.87154</v>
+        <v>-59605.45119</v>
       </c>
       <c r="J46" s="2">
         <f>I46+J36</f>
-        <v>-53523.671356674</v>
+        <v>-53527.743831339001</v>
       </c>
       <c r="P46" s="2">
         <f>P47-P58-P60</f>
@@ -6283,43 +6363,43 @@
       </c>
       <c r="Q46" s="2">
         <f>J46</f>
-        <v>-53523.671356674</v>
+        <v>-53527.743831339001</v>
       </c>
       <c r="R46" s="2">
-        <f t="shared" ref="R46:Z46" si="73">Q46+R36</f>
-        <v>-32478.931580931108</v>
+        <f t="shared" ref="R46:Z46" si="72">Q46+R36</f>
+        <v>-32507.181983649683</v>
       </c>
       <c r="S46" s="2">
-        <f t="shared" si="73"/>
-        <v>-8997.7575487201029</v>
+        <f t="shared" si="72"/>
+        <v>-9049.0306941294257</v>
       </c>
       <c r="T46" s="2">
-        <f t="shared" si="73"/>
-        <v>17151.059709955021</v>
+        <f t="shared" si="72"/>
+        <v>16607.233977255783</v>
       </c>
       <c r="U46" s="2">
-        <f t="shared" si="73"/>
-        <v>46220.537796621167</v>
+        <f t="shared" si="72"/>
+        <v>44626.173923821945</v>
       </c>
       <c r="V46" s="2">
-        <f t="shared" si="73"/>
-        <v>77209.145353186977</v>
+        <f t="shared" si="72"/>
+        <v>74974.859670878024</v>
       </c>
       <c r="W46" s="2">
-        <f t="shared" si="73"/>
-        <v>110217.13028620512</v>
+        <f t="shared" si="72"/>
+        <v>107817.34143359451</v>
       </c>
       <c r="X46" s="2">
-        <f t="shared" si="73"/>
-        <v>145349.65463598882</v>
+        <f t="shared" si="72"/>
+        <v>143329.153520094</v>
       </c>
       <c r="Y46" s="2">
-        <f t="shared" si="73"/>
-        <v>182717.03225363564</v>
+        <f t="shared" si="72"/>
+        <v>181698.13678274062</v>
       </c>
       <c r="Z46" s="2">
-        <f t="shared" si="73"/>
-        <v>222434.97801060026</v>
+        <f t="shared" si="72"/>
+        <v>223125.32121925816</v>
       </c>
     </row>
     <row r="47" spans="1:136" x14ac:dyDescent="0.2">
@@ -7101,9 +7181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1821AE52-0544-46E9-93D9-C9ACA7CED10F}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/ABBV.xlsx
+++ b/ABBV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A06EFC-A05D-4A14-B25D-8855C8308BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38105E0-A288-46FA-BF7F-C858173B0257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="390" windowWidth="22200" windowHeight="14685" activeTab="1" xr2:uid="{5AA46402-15B0-4FC0-8E3D-B86295590FFA}"/>
+    <workbookView xWindow="3510" yWindow="795" windowWidth="22200" windowHeight="14685" activeTab="5" xr2:uid="{5AA46402-15B0-4FC0-8E3D-B86295590FFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2709,11 +2709,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9935B7F5-3F26-4E65-930A-A4889CFBAE6E}">
   <dimension ref="A1:EF72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="R17" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="R20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB38" sqref="AB38"/>
+      <selection pane="bottomRight" activeCell="U41" sqref="U41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7181,7 +7181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1821AE52-0544-46E9-93D9-C9ACA7CED10F}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
